--- a/document/基本設計/基本設計書_アカウント一覧.xlsx
+++ b/document/基本設計/基本設計書_アカウント一覧.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28926"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\emi07\Desktop\追加課題6\【実習】各種設計書（テンプレ）\基本設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="846" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4FF32800-4318-439A-B105-FAAA98A6EED9}"/>
+  <xr:revisionPtr revIDLastSave="848" documentId="13_ncr:1_{9CEC4A06-5D13-4998-9862-AA740C6E7656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84D32A64-F2AB-46E5-AFED-5889FF402DF0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" tabRatio="774" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -773,6 +773,17 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="4" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -827,59 +838,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -904,28 +904,14 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -936,49 +922,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,6 +930,63 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -2511,7 +2511,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="0070BF"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -2594,7 +2594,7 @@
         </a:solidFill>
         <a:ln>
           <a:solidFill>
-            <a:srgbClr val="0070BF"/>
+            <a:schemeClr val="tx1"/>
           </a:solidFill>
         </a:ln>
       </xdr:spPr>
@@ -3510,20 +3510,20 @@
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="G8" s="58"/>
-      <c r="H8" s="58"/>
-      <c r="I8" s="58"/>
-      <c r="J8" s="58"/>
-      <c r="K8" s="58"/>
-      <c r="L8" s="58"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="58"/>
-      <c r="O8" s="58"/>
-      <c r="P8" s="58"/>
-      <c r="Q8" s="59"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="70"/>
       <c r="R8" s="14"/>
       <c r="S8" s="14"/>
       <c r="T8" s="14"/>
@@ -3542,26 +3542,26 @@
     </row>
     <row r="9" spans="1:256" ht="12.95" customHeight="1">
       <c r="A9" s="17"/>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="66" t="s">
+      <c r="C9" s="72"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="73"/>
+      <c r="F9" s="77" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="67"/>
-      <c r="H9" s="67"/>
-      <c r="I9" s="67"/>
-      <c r="J9" s="67"/>
-      <c r="K9" s="67"/>
-      <c r="L9" s="67"/>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="68"/>
+      <c r="G9" s="78"/>
+      <c r="H9" s="78"/>
+      <c r="I9" s="78"/>
+      <c r="J9" s="78"/>
+      <c r="K9" s="78"/>
+      <c r="L9" s="78"/>
+      <c r="M9" s="78"/>
+      <c r="N9" s="78"/>
+      <c r="O9" s="78"/>
+      <c r="P9" s="78"/>
+      <c r="Q9" s="79"/>
       <c r="R9" s="14"/>
       <c r="S9" s="14"/>
       <c r="T9" s="14"/>
@@ -3580,22 +3580,22 @@
     </row>
     <row r="10" spans="1:256" ht="12.95" customHeight="1">
       <c r="A10" s="17"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="O10" s="70"/>
-      <c r="P10" s="70"/>
-      <c r="Q10" s="71"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="75"/>
+      <c r="E10" s="76"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="81"/>
+      <c r="H10" s="81"/>
+      <c r="I10" s="81"/>
+      <c r="J10" s="81"/>
+      <c r="K10" s="81"/>
+      <c r="L10" s="81"/>
+      <c r="M10" s="81"/>
+      <c r="N10" s="81"/>
+      <c r="O10" s="81"/>
+      <c r="P10" s="81"/>
+      <c r="Q10" s="82"/>
       <c r="R10" s="14"/>
       <c r="S10" s="14"/>
       <c r="T10" s="14"/>
@@ -3806,26 +3806,26 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="72" t="s">
+      <c r="H17" s="83" t="s">
         <v>4</v>
       </c>
-      <c r="I17" s="72"/>
-      <c r="J17" s="72"/>
-      <c r="K17" s="72"/>
-      <c r="L17" s="72"/>
-      <c r="M17" s="72"/>
-      <c r="N17" s="72"/>
-      <c r="O17" s="72"/>
-      <c r="P17" s="72"/>
-      <c r="Q17" s="72"/>
-      <c r="R17" s="72"/>
-      <c r="S17" s="72"/>
-      <c r="T17" s="72"/>
-      <c r="U17" s="72"/>
-      <c r="V17" s="72"/>
-      <c r="W17" s="72"/>
-      <c r="X17" s="72"/>
-      <c r="Y17" s="72"/>
+      <c r="I17" s="83"/>
+      <c r="J17" s="83"/>
+      <c r="K17" s="83"/>
+      <c r="L17" s="83"/>
+      <c r="M17" s="83"/>
+      <c r="N17" s="83"/>
+      <c r="O17" s="83"/>
+      <c r="P17" s="83"/>
+      <c r="Q17" s="83"/>
+      <c r="R17" s="83"/>
+      <c r="S17" s="83"/>
+      <c r="T17" s="83"/>
+      <c r="U17" s="83"/>
+      <c r="V17" s="83"/>
+      <c r="W17" s="83"/>
+      <c r="X17" s="83"/>
+      <c r="Y17" s="83"/>
       <c r="AA17" s="14"/>
       <c r="AB17" s="14"/>
       <c r="AC17" s="14"/>
@@ -3841,24 +3841,24 @@
       <c r="E18" s="14"/>
       <c r="F18" s="14"/>
       <c r="G18" s="14"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="72"/>
-      <c r="K18" s="72"/>
-      <c r="L18" s="72"/>
-      <c r="M18" s="72"/>
-      <c r="N18" s="72"/>
-      <c r="O18" s="72"/>
-      <c r="P18" s="72"/>
-      <c r="Q18" s="72"/>
-      <c r="R18" s="72"/>
-      <c r="S18" s="72"/>
-      <c r="T18" s="72"/>
-      <c r="U18" s="72"/>
-      <c r="V18" s="72"/>
-      <c r="W18" s="72"/>
-      <c r="X18" s="72"/>
-      <c r="Y18" s="72"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="83"/>
+      <c r="J18" s="83"/>
+      <c r="K18" s="83"/>
+      <c r="L18" s="83"/>
+      <c r="M18" s="83"/>
+      <c r="N18" s="83"/>
+      <c r="O18" s="83"/>
+      <c r="P18" s="83"/>
+      <c r="Q18" s="83"/>
+      <c r="R18" s="83"/>
+      <c r="S18" s="83"/>
+      <c r="T18" s="83"/>
+      <c r="U18" s="83"/>
+      <c r="V18" s="83"/>
+      <c r="W18" s="83"/>
+      <c r="X18" s="83"/>
+      <c r="Y18" s="83"/>
       <c r="AA18" s="14"/>
       <c r="AB18" s="14"/>
       <c r="AC18" s="14"/>
@@ -3874,24 +3874,24 @@
       <c r="E19" s="14"/>
       <c r="F19" s="14"/>
       <c r="G19" s="14"/>
-      <c r="H19" s="72"/>
-      <c r="I19" s="72"/>
-      <c r="J19" s="72"/>
-      <c r="K19" s="72"/>
-      <c r="L19" s="72"/>
-      <c r="M19" s="72"/>
-      <c r="N19" s="72"/>
-      <c r="O19" s="72"/>
-      <c r="P19" s="72"/>
-      <c r="Q19" s="72"/>
-      <c r="R19" s="72"/>
-      <c r="S19" s="72"/>
-      <c r="T19" s="72"/>
-      <c r="U19" s="72"/>
-      <c r="V19" s="72"/>
-      <c r="W19" s="72"/>
-      <c r="X19" s="72"/>
-      <c r="Y19" s="72"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="83"/>
+      <c r="J19" s="83"/>
+      <c r="K19" s="83"/>
+      <c r="L19" s="83"/>
+      <c r="M19" s="83"/>
+      <c r="N19" s="83"/>
+      <c r="O19" s="83"/>
+      <c r="P19" s="83"/>
+      <c r="Q19" s="83"/>
+      <c r="R19" s="83"/>
+      <c r="S19" s="83"/>
+      <c r="T19" s="83"/>
+      <c r="U19" s="83"/>
+      <c r="V19" s="83"/>
+      <c r="W19" s="83"/>
+      <c r="X19" s="83"/>
+      <c r="Y19" s="83"/>
       <c r="Z19" s="14"/>
       <c r="AA19" s="14"/>
       <c r="AB19" s="14"/>
@@ -4119,12 +4119,12 @@
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="24"/>
-      <c r="F26" s="73">
+      <c r="F26" s="84">
         <v>45798</v>
       </c>
-      <c r="G26" s="74"/>
-      <c r="H26" s="74"/>
-      <c r="I26" s="75"/>
+      <c r="G26" s="85"/>
+      <c r="H26" s="85"/>
+      <c r="I26" s="86"/>
       <c r="J26" s="52" t="s">
         <v>12</v>
       </c>
@@ -4770,127 +4770,127 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:177" ht="12.75" customHeight="1">
-      <c r="A1" s="76" t="s">
+      <c r="A1" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="76"/>
-      <c r="C1" s="76"/>
-      <c r="D1" s="76"/>
-      <c r="E1" s="76"/>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="H1" s="76"/>
-      <c r="I1" s="76"/>
-      <c r="J1" s="76"/>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
-      <c r="M1" s="76"/>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
-      <c r="P1" s="76"/>
-      <c r="Q1" s="76"/>
-      <c r="R1" s="76"/>
-      <c r="S1" s="76"/>
-      <c r="T1" s="76"/>
-      <c r="U1" s="76"/>
-      <c r="V1" s="76"/>
-      <c r="W1" s="76"/>
-      <c r="X1" s="76"/>
-      <c r="Y1" s="76"/>
-      <c r="Z1" s="76"/>
-      <c r="AA1" s="76"/>
-      <c r="AB1" s="76"/>
-      <c r="AC1" s="76"/>
-      <c r="AD1" s="76"/>
-      <c r="AE1" s="76"/>
-      <c r="AF1" s="76"/>
-      <c r="AG1" s="76"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
+      <c r="P1" s="87"/>
+      <c r="Q1" s="87"/>
+      <c r="R1" s="87"/>
+      <c r="S1" s="87"/>
+      <c r="T1" s="87"/>
+      <c r="U1" s="87"/>
+      <c r="V1" s="87"/>
+      <c r="W1" s="87"/>
+      <c r="X1" s="87"/>
+      <c r="Y1" s="87"/>
+      <c r="Z1" s="87"/>
+      <c r="AA1" s="87"/>
+      <c r="AB1" s="87"/>
+      <c r="AC1" s="87"/>
+      <c r="AD1" s="87"/>
+      <c r="AE1" s="87"/>
+      <c r="AF1" s="87"/>
+      <c r="AG1" s="87"/>
     </row>
     <row r="2" spans="1:177" ht="12.95" customHeight="1">
-      <c r="A2" s="77" t="s">
+      <c r="A2" s="88" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="78"/>
-      <c r="C2" s="78"/>
-      <c r="D2" s="78"/>
-      <c r="E2" s="78"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="82" t="s">
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="89"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="93" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="83"/>
-      <c r="I2" s="83"/>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="83"/>
-      <c r="O2" s="83"/>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="83"/>
-      <c r="U2" s="83"/>
-      <c r="V2" s="83"/>
-      <c r="W2" s="83"/>
-      <c r="X2" s="83"/>
-      <c r="Y2" s="83"/>
-      <c r="Z2" s="83"/>
-      <c r="AA2" s="83"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="80" t="s">
+      <c r="H2" s="94"/>
+      <c r="I2" s="94"/>
+      <c r="J2" s="94"/>
+      <c r="K2" s="94"/>
+      <c r="L2" s="94"/>
+      <c r="M2" s="94"/>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
+      <c r="S2" s="94"/>
+      <c r="T2" s="94"/>
+      <c r="U2" s="94"/>
+      <c r="V2" s="94"/>
+      <c r="W2" s="94"/>
+      <c r="X2" s="94"/>
+      <c r="Y2" s="94"/>
+      <c r="Z2" s="94"/>
+      <c r="AA2" s="94"/>
+      <c r="AB2" s="94"/>
+      <c r="AC2" s="95"/>
+      <c r="AD2" s="91" t="s">
         <v>17</v>
       </c>
-      <c r="AE2" s="81"/>
-      <c r="AF2" s="77" t="s">
+      <c r="AE2" s="92"/>
+      <c r="AF2" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="AG2" s="79"/>
+      <c r="AG2" s="90"/>
     </row>
     <row r="3" spans="1:177" s="3" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="77" t="s">
+      <c r="A3" s="88" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="78"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="77" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="88" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="78"/>
-      <c r="L3" s="78"/>
-      <c r="M3" s="78"/>
-      <c r="N3" s="78"/>
-      <c r="O3" s="78"/>
-      <c r="P3" s="78"/>
-      <c r="Q3" s="78"/>
-      <c r="R3" s="78"/>
-      <c r="S3" s="78"/>
-      <c r="T3" s="78"/>
-      <c r="U3" s="78"/>
-      <c r="V3" s="78"/>
-      <c r="W3" s="78"/>
-      <c r="X3" s="78"/>
-      <c r="Y3" s="78"/>
-      <c r="Z3" s="78"/>
-      <c r="AA3" s="78"/>
-      <c r="AB3" s="78"/>
-      <c r="AC3" s="79"/>
-      <c r="AD3" s="80" t="s">
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+      <c r="K3" s="89"/>
+      <c r="L3" s="89"/>
+      <c r="M3" s="89"/>
+      <c r="N3" s="89"/>
+      <c r="O3" s="89"/>
+      <c r="P3" s="89"/>
+      <c r="Q3" s="89"/>
+      <c r="R3" s="89"/>
+      <c r="S3" s="89"/>
+      <c r="T3" s="89"/>
+      <c r="U3" s="89"/>
+      <c r="V3" s="89"/>
+      <c r="W3" s="89"/>
+      <c r="X3" s="89"/>
+      <c r="Y3" s="89"/>
+      <c r="Z3" s="89"/>
+      <c r="AA3" s="89"/>
+      <c r="AB3" s="89"/>
+      <c r="AC3" s="90"/>
+      <c r="AD3" s="91" t="s">
         <v>20</v>
       </c>
-      <c r="AE3" s="81"/>
-      <c r="AF3" s="77" t="s">
+      <c r="AE3" s="92"/>
+      <c r="AF3" s="88" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="79"/>
+      <c r="AG3" s="90"/>
       <c r="AH3" s="2"/>
       <c r="AI3" s="6"/>
       <c r="AJ3" s="6"/>
@@ -6430,7 +6430,7 @@
   <dimension ref="A1:FY52"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="AH25" sqref="AH25"/>
+      <selection activeCell="AO14" sqref="AO14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" customHeight="1"/>
@@ -6444,137 +6444,137 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:181" ht="12.75" customHeight="1">
-      <c r="A1" s="93" t="s">
+      <c r="A1" s="140" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="93"/>
-      <c r="F1" s="93"/>
-      <c r="G1" s="93"/>
-      <c r="H1" s="93"/>
-      <c r="I1" s="93"/>
-      <c r="J1" s="93"/>
-      <c r="K1" s="93"/>
-      <c r="L1" s="93"/>
-      <c r="M1" s="93"/>
-      <c r="N1" s="93"/>
-      <c r="O1" s="93"/>
-      <c r="P1" s="93"/>
-      <c r="Q1" s="93"/>
-      <c r="R1" s="93"/>
-      <c r="S1" s="93"/>
-      <c r="T1" s="93"/>
-      <c r="U1" s="93"/>
-      <c r="V1" s="93"/>
-      <c r="W1" s="93"/>
-      <c r="X1" s="93"/>
-      <c r="Y1" s="93"/>
-      <c r="Z1" s="93"/>
-      <c r="AA1" s="93"/>
-      <c r="AB1" s="93"/>
-      <c r="AC1" s="93"/>
-      <c r="AD1" s="93"/>
-      <c r="AE1" s="93"/>
-      <c r="AF1" s="93"/>
-      <c r="AG1" s="93"/>
-      <c r="AH1" s="93"/>
-      <c r="AI1" s="93"/>
-      <c r="AJ1" s="93"/>
-      <c r="AK1" s="93"/>
+      <c r="B1" s="140"/>
+      <c r="C1" s="140"/>
+      <c r="D1" s="140"/>
+      <c r="E1" s="140"/>
+      <c r="F1" s="140"/>
+      <c r="G1" s="140"/>
+      <c r="H1" s="140"/>
+      <c r="I1" s="140"/>
+      <c r="J1" s="140"/>
+      <c r="K1" s="140"/>
+      <c r="L1" s="140"/>
+      <c r="M1" s="140"/>
+      <c r="N1" s="140"/>
+      <c r="O1" s="140"/>
+      <c r="P1" s="140"/>
+      <c r="Q1" s="140"/>
+      <c r="R1" s="140"/>
+      <c r="S1" s="140"/>
+      <c r="T1" s="140"/>
+      <c r="U1" s="140"/>
+      <c r="V1" s="140"/>
+      <c r="W1" s="140"/>
+      <c r="X1" s="140"/>
+      <c r="Y1" s="140"/>
+      <c r="Z1" s="140"/>
+      <c r="AA1" s="140"/>
+      <c r="AB1" s="140"/>
+      <c r="AC1" s="140"/>
+      <c r="AD1" s="140"/>
+      <c r="AE1" s="140"/>
+      <c r="AF1" s="140"/>
+      <c r="AG1" s="140"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="140"/>
+      <c r="AJ1" s="140"/>
+      <c r="AK1" s="140"/>
     </row>
     <row r="2" spans="1:181" ht="12.95" customHeight="1">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="141" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="96"/>
-      <c r="G2" s="94" t="s">
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="141" t="s">
         <v>23</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="95"/>
-      <c r="J2" s="95"/>
-      <c r="K2" s="95"/>
-      <c r="L2" s="95"/>
-      <c r="M2" s="95"/>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
-      <c r="S2" s="95"/>
-      <c r="T2" s="95"/>
-      <c r="U2" s="95"/>
-      <c r="V2" s="95"/>
-      <c r="W2" s="95"/>
-      <c r="X2" s="95"/>
-      <c r="Y2" s="95"/>
-      <c r="Z2" s="95"/>
-      <c r="AA2" s="95"/>
-      <c r="AB2" s="95"/>
-      <c r="AC2" s="95"/>
-      <c r="AD2" s="95"/>
-      <c r="AE2" s="95"/>
-      <c r="AF2" s="95"/>
-      <c r="AG2" s="96"/>
-      <c r="AH2" s="94" t="s">
+      <c r="H2" s="142"/>
+      <c r="I2" s="142"/>
+      <c r="J2" s="142"/>
+      <c r="K2" s="142"/>
+      <c r="L2" s="142"/>
+      <c r="M2" s="142"/>
+      <c r="N2" s="142"/>
+      <c r="O2" s="142"/>
+      <c r="P2" s="142"/>
+      <c r="Q2" s="142"/>
+      <c r="R2" s="142"/>
+      <c r="S2" s="142"/>
+      <c r="T2" s="142"/>
+      <c r="U2" s="142"/>
+      <c r="V2" s="142"/>
+      <c r="W2" s="142"/>
+      <c r="X2" s="142"/>
+      <c r="Y2" s="142"/>
+      <c r="Z2" s="142"/>
+      <c r="AA2" s="142"/>
+      <c r="AB2" s="142"/>
+      <c r="AC2" s="142"/>
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="142"/>
+      <c r="AG2" s="143"/>
+      <c r="AH2" s="141" t="s">
         <v>17</v>
       </c>
-      <c r="AI2" s="96"/>
-      <c r="AJ2" s="94" t="s">
+      <c r="AI2" s="143"/>
+      <c r="AJ2" s="141" t="s">
         <v>18</v>
       </c>
-      <c r="AK2" s="96"/>
+      <c r="AK2" s="143"/>
     </row>
     <row r="3" spans="1:181" s="16" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A3" s="94" t="s">
+      <c r="A3" s="141" t="s">
         <v>24</v>
       </c>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="95"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="94" t="s">
+      <c r="B3" s="142"/>
+      <c r="C3" s="142"/>
+      <c r="D3" s="142"/>
+      <c r="E3" s="142"/>
+      <c r="F3" s="143"/>
+      <c r="G3" s="141" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="95"/>
-      <c r="I3" s="95"/>
-      <c r="J3" s="95"/>
-      <c r="K3" s="95"/>
-      <c r="L3" s="95"/>
-      <c r="M3" s="95"/>
-      <c r="N3" s="95"/>
-      <c r="O3" s="95"/>
-      <c r="P3" s="95"/>
-      <c r="Q3" s="95"/>
-      <c r="R3" s="95"/>
-      <c r="S3" s="95"/>
-      <c r="T3" s="95"/>
-      <c r="U3" s="95"/>
-      <c r="V3" s="95"/>
-      <c r="W3" s="95"/>
-      <c r="X3" s="95"/>
-      <c r="Y3" s="95"/>
-      <c r="Z3" s="95"/>
-      <c r="AA3" s="95"/>
-      <c r="AB3" s="95"/>
-      <c r="AC3" s="95"/>
-      <c r="AD3" s="95"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="95"/>
-      <c r="AG3" s="96"/>
-      <c r="AH3" s="94"/>
-      <c r="AI3" s="96"/>
-      <c r="AJ3" s="94" t="s">
+      <c r="H3" s="142"/>
+      <c r="I3" s="142"/>
+      <c r="J3" s="142"/>
+      <c r="K3" s="142"/>
+      <c r="L3" s="142"/>
+      <c r="M3" s="142"/>
+      <c r="N3" s="142"/>
+      <c r="O3" s="142"/>
+      <c r="P3" s="142"/>
+      <c r="Q3" s="142"/>
+      <c r="R3" s="142"/>
+      <c r="S3" s="142"/>
+      <c r="T3" s="142"/>
+      <c r="U3" s="142"/>
+      <c r="V3" s="142"/>
+      <c r="W3" s="142"/>
+      <c r="X3" s="142"/>
+      <c r="Y3" s="142"/>
+      <c r="Z3" s="142"/>
+      <c r="AA3" s="142"/>
+      <c r="AB3" s="142"/>
+      <c r="AC3" s="142"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="142"/>
+      <c r="AF3" s="142"/>
+      <c r="AG3" s="143"/>
+      <c r="AH3" s="141"/>
+      <c r="AI3" s="143"/>
+      <c r="AJ3" s="141" t="s">
         <v>13</v>
       </c>
-      <c r="AK3" s="96"/>
+      <c r="AK3" s="143"/>
       <c r="AL3" s="14"/>
       <c r="AM3" s="15"/>
       <c r="AN3" s="15"/>
@@ -6761,160 +6761,160 @@
     </row>
     <row r="5" spans="1:181" ht="12.75" customHeight="1">
       <c r="A5" s="48"/>
-      <c r="B5" s="114" t="s">
+      <c r="B5" s="109" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
-      <c r="E5" s="106"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
-      <c r="N5" s="106"/>
-      <c r="O5" s="106"/>
-      <c r="P5" s="106"/>
-      <c r="Q5" s="106"/>
-      <c r="R5" s="106"/>
-      <c r="S5" s="106"/>
-      <c r="T5" s="106"/>
-      <c r="U5" s="106"/>
-      <c r="V5" s="106"/>
-      <c r="W5" s="106"/>
-      <c r="X5" s="106"/>
-      <c r="Y5" s="106"/>
-      <c r="Z5" s="106"/>
-      <c r="AA5" s="106"/>
-      <c r="AB5" s="106"/>
-      <c r="AC5" s="106"/>
-      <c r="AD5" s="106"/>
-      <c r="AE5" s="106"/>
-      <c r="AF5" s="106"/>
-      <c r="AG5" s="106"/>
-      <c r="AH5" s="106"/>
-      <c r="AI5" s="106"/>
-      <c r="AJ5" s="107"/>
+      <c r="C5" s="110"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="110"/>
+      <c r="F5" s="110"/>
+      <c r="G5" s="110"/>
+      <c r="H5" s="110"/>
+      <c r="I5" s="110"/>
+      <c r="J5" s="110"/>
+      <c r="K5" s="110"/>
+      <c r="L5" s="110"/>
+      <c r="M5" s="110"/>
+      <c r="N5" s="110"/>
+      <c r="O5" s="110"/>
+      <c r="P5" s="110"/>
+      <c r="Q5" s="110"/>
+      <c r="R5" s="110"/>
+      <c r="S5" s="110"/>
+      <c r="T5" s="110"/>
+      <c r="U5" s="110"/>
+      <c r="V5" s="110"/>
+      <c r="W5" s="110"/>
+      <c r="X5" s="110"/>
+      <c r="Y5" s="110"/>
+      <c r="Z5" s="110"/>
+      <c r="AA5" s="110"/>
+      <c r="AB5" s="110"/>
+      <c r="AC5" s="110"/>
+      <c r="AD5" s="110"/>
+      <c r="AE5" s="110"/>
+      <c r="AF5" s="110"/>
+      <c r="AG5" s="110"/>
+      <c r="AH5" s="110"/>
+      <c r="AI5" s="110"/>
+      <c r="AJ5" s="111"/>
       <c r="AK5" s="39"/>
     </row>
     <row r="6" spans="1:181" ht="12.75" customHeight="1">
       <c r="A6" s="48"/>
-      <c r="B6" s="108"/>
-      <c r="C6" s="109"/>
-      <c r="D6" s="109"/>
-      <c r="E6" s="109"/>
-      <c r="F6" s="109"/>
-      <c r="G6" s="109"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="109"/>
-      <c r="J6" s="109"/>
-      <c r="K6" s="109"/>
-      <c r="L6" s="109"/>
-      <c r="M6" s="109"/>
-      <c r="N6" s="109"/>
-      <c r="O6" s="109"/>
-      <c r="P6" s="109"/>
-      <c r="Q6" s="109"/>
-      <c r="R6" s="109"/>
-      <c r="S6" s="109"/>
-      <c r="T6" s="109"/>
-      <c r="U6" s="109"/>
-      <c r="V6" s="109"/>
-      <c r="W6" s="109"/>
-      <c r="X6" s="109"/>
-      <c r="Y6" s="109"/>
-      <c r="Z6" s="109"/>
-      <c r="AA6" s="109"/>
-      <c r="AB6" s="109"/>
-      <c r="AC6" s="109"/>
-      <c r="AD6" s="109"/>
-      <c r="AE6" s="109"/>
-      <c r="AF6" s="109"/>
-      <c r="AG6" s="109"/>
-      <c r="AH6" s="109"/>
-      <c r="AI6" s="109"/>
-      <c r="AJ6" s="110"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="113"/>
+      <c r="H6" s="113"/>
+      <c r="I6" s="113"/>
+      <c r="J6" s="113"/>
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="113"/>
+      <c r="AH6" s="113"/>
+      <c r="AI6" s="113"/>
+      <c r="AJ6" s="114"/>
       <c r="AK6" s="39"/>
     </row>
     <row r="7" spans="1:181" ht="12.75" customHeight="1">
       <c r="A7" s="48"/>
-      <c r="B7" s="108"/>
-      <c r="C7" s="109"/>
-      <c r="D7" s="109"/>
-      <c r="E7" s="109"/>
-      <c r="F7" s="109"/>
-      <c r="G7" s="109"/>
-      <c r="H7" s="109"/>
-      <c r="I7" s="109"/>
-      <c r="J7" s="109"/>
-      <c r="K7" s="109"/>
-      <c r="L7" s="109"/>
-      <c r="M7" s="109"/>
-      <c r="N7" s="109"/>
-      <c r="O7" s="109"/>
-      <c r="P7" s="109"/>
-      <c r="Q7" s="109"/>
-      <c r="R7" s="109"/>
-      <c r="S7" s="109"/>
-      <c r="T7" s="109"/>
-      <c r="U7" s="109"/>
-      <c r="V7" s="109"/>
-      <c r="W7" s="109"/>
-      <c r="X7" s="109"/>
-      <c r="Y7" s="109"/>
-      <c r="Z7" s="109"/>
-      <c r="AA7" s="109"/>
-      <c r="AB7" s="109"/>
-      <c r="AC7" s="109"/>
-      <c r="AD7" s="109"/>
-      <c r="AE7" s="109"/>
-      <c r="AF7" s="109"/>
-      <c r="AG7" s="109"/>
-      <c r="AH7" s="109"/>
-      <c r="AI7" s="109"/>
-      <c r="AJ7" s="110"/>
+      <c r="B7" s="112"/>
+      <c r="C7" s="113"/>
+      <c r="D7" s="113"/>
+      <c r="E7" s="113"/>
+      <c r="F7" s="113"/>
+      <c r="G7" s="113"/>
+      <c r="H7" s="113"/>
+      <c r="I7" s="113"/>
+      <c r="J7" s="113"/>
+      <c r="K7" s="113"/>
+      <c r="L7" s="113"/>
+      <c r="M7" s="113"/>
+      <c r="N7" s="113"/>
+      <c r="O7" s="113"/>
+      <c r="P7" s="113"/>
+      <c r="Q7" s="113"/>
+      <c r="R7" s="113"/>
+      <c r="S7" s="113"/>
+      <c r="T7" s="113"/>
+      <c r="U7" s="113"/>
+      <c r="V7" s="113"/>
+      <c r="W7" s="113"/>
+      <c r="X7" s="113"/>
+      <c r="Y7" s="113"/>
+      <c r="Z7" s="113"/>
+      <c r="AA7" s="113"/>
+      <c r="AB7" s="113"/>
+      <c r="AC7" s="113"/>
+      <c r="AD7" s="113"/>
+      <c r="AE7" s="113"/>
+      <c r="AF7" s="113"/>
+      <c r="AG7" s="113"/>
+      <c r="AH7" s="113"/>
+      <c r="AI7" s="113"/>
+      <c r="AJ7" s="114"/>
       <c r="AK7" s="39"/>
     </row>
     <row r="8" spans="1:181" ht="12.75" customHeight="1">
       <c r="A8" s="48"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="112"/>
-      <c r="E8" s="112"/>
-      <c r="F8" s="112"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="112"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="112"/>
-      <c r="K8" s="112"/>
-      <c r="L8" s="112"/>
-      <c r="M8" s="112"/>
-      <c r="N8" s="112"/>
-      <c r="O8" s="112"/>
-      <c r="P8" s="112"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="112"/>
-      <c r="AF8" s="112"/>
-      <c r="AG8" s="112"/>
-      <c r="AH8" s="112"/>
-      <c r="AI8" s="112"/>
-      <c r="AJ8" s="113"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="116"/>
+      <c r="D8" s="116"/>
+      <c r="E8" s="116"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="116"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="116"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="116"/>
+      <c r="M8" s="116"/>
+      <c r="N8" s="116"/>
+      <c r="O8" s="116"/>
+      <c r="P8" s="116"/>
+      <c r="Q8" s="116"/>
+      <c r="R8" s="116"/>
+      <c r="S8" s="116"/>
+      <c r="T8" s="116"/>
+      <c r="U8" s="116"/>
+      <c r="V8" s="116"/>
+      <c r="W8" s="116"/>
+      <c r="X8" s="116"/>
+      <c r="Y8" s="116"/>
+      <c r="Z8" s="116"/>
+      <c r="AA8" s="116"/>
+      <c r="AB8" s="116"/>
+      <c r="AC8" s="116"/>
+      <c r="AD8" s="116"/>
+      <c r="AE8" s="116"/>
+      <c r="AF8" s="116"/>
+      <c r="AG8" s="116"/>
+      <c r="AH8" s="116"/>
+      <c r="AI8" s="116"/>
+      <c r="AJ8" s="117"/>
       <c r="AK8" s="39"/>
     </row>
     <row r="9" spans="1:181" ht="12.75" customHeight="1">
@@ -7077,211 +7077,211 @@
     </row>
     <row r="13" spans="1:181" ht="28.5" customHeight="1">
       <c r="A13" s="48"/>
-      <c r="B13" s="128" t="s">
+      <c r="B13" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="130"/>
-      <c r="J13" s="125"/>
-      <c r="K13" s="126"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="126"/>
-      <c r="N13" s="126"/>
-      <c r="O13" s="126"/>
-      <c r="P13" s="126"/>
-      <c r="Q13" s="127"/>
-      <c r="R13" s="143" t="s">
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="123"/>
+      <c r="R13" s="124" t="s">
         <v>28</v>
       </c>
-      <c r="S13" s="144"/>
-      <c r="T13" s="144"/>
-      <c r="U13" s="144"/>
-      <c r="V13" s="144"/>
-      <c r="W13" s="144"/>
-      <c r="X13" s="144"/>
-      <c r="Y13" s="144"/>
-      <c r="Z13" s="144"/>
-      <c r="AA13" s="144"/>
-      <c r="AB13" s="144"/>
-      <c r="AC13" s="145"/>
-      <c r="AD13" s="122"/>
-      <c r="AE13" s="123"/>
-      <c r="AF13" s="123"/>
-      <c r="AG13" s="123"/>
-      <c r="AH13" s="123"/>
-      <c r="AI13" s="123"/>
-      <c r="AJ13" s="124"/>
+      <c r="S13" s="125"/>
+      <c r="T13" s="125"/>
+      <c r="U13" s="125"/>
+      <c r="V13" s="125"/>
+      <c r="W13" s="125"/>
+      <c r="X13" s="125"/>
+      <c r="Y13" s="125"/>
+      <c r="Z13" s="125"/>
+      <c r="AA13" s="125"/>
+      <c r="AB13" s="125"/>
+      <c r="AC13" s="126"/>
+      <c r="AD13" s="127"/>
+      <c r="AE13" s="128"/>
+      <c r="AF13" s="128"/>
+      <c r="AG13" s="128"/>
+      <c r="AH13" s="128"/>
+      <c r="AI13" s="128"/>
+      <c r="AJ13" s="129"/>
       <c r="AK13" s="39"/>
     </row>
     <row r="14" spans="1:181" ht="27" customHeight="1">
       <c r="A14" s="48"/>
-      <c r="B14" s="128" t="s">
+      <c r="B14" s="118" t="s">
         <v>29</v>
       </c>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="130"/>
-      <c r="J14" s="125"/>
-      <c r="K14" s="126"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="126"/>
-      <c r="N14" s="126"/>
-      <c r="O14" s="126"/>
-      <c r="P14" s="126"/>
-      <c r="Q14" s="127"/>
-      <c r="R14" s="143" t="s">
+      <c r="C14" s="119"/>
+      <c r="D14" s="119"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="119"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="122"/>
+      <c r="M14" s="122"/>
+      <c r="N14" s="122"/>
+      <c r="O14" s="122"/>
+      <c r="P14" s="122"/>
+      <c r="Q14" s="123"/>
+      <c r="R14" s="124" t="s">
         <v>30</v>
       </c>
-      <c r="S14" s="144"/>
-      <c r="T14" s="144"/>
-      <c r="U14" s="144"/>
-      <c r="V14" s="144"/>
-      <c r="W14" s="144"/>
-      <c r="X14" s="144"/>
-      <c r="Y14" s="144"/>
-      <c r="Z14" s="144"/>
-      <c r="AA14" s="144"/>
-      <c r="AB14" s="144"/>
-      <c r="AC14" s="145"/>
-      <c r="AD14" s="122"/>
-      <c r="AE14" s="123"/>
-      <c r="AF14" s="123"/>
-      <c r="AG14" s="123"/>
-      <c r="AH14" s="123"/>
-      <c r="AI14" s="123"/>
-      <c r="AJ14" s="124"/>
+      <c r="S14" s="125"/>
+      <c r="T14" s="125"/>
+      <c r="U14" s="125"/>
+      <c r="V14" s="125"/>
+      <c r="W14" s="125"/>
+      <c r="X14" s="125"/>
+      <c r="Y14" s="125"/>
+      <c r="Z14" s="125"/>
+      <c r="AA14" s="125"/>
+      <c r="AB14" s="125"/>
+      <c r="AC14" s="126"/>
+      <c r="AD14" s="127"/>
+      <c r="AE14" s="128"/>
+      <c r="AF14" s="128"/>
+      <c r="AG14" s="128"/>
+      <c r="AH14" s="128"/>
+      <c r="AI14" s="128"/>
+      <c r="AJ14" s="129"/>
       <c r="AK14" s="39"/>
     </row>
     <row r="15" spans="1:181" ht="22.5" customHeight="1">
       <c r="A15" s="48"/>
-      <c r="B15" s="128" t="s">
+      <c r="B15" s="118" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="130"/>
-      <c r="J15" s="125"/>
-      <c r="K15" s="126"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="126"/>
-      <c r="N15" s="126"/>
-      <c r="O15" s="126"/>
-      <c r="P15" s="126"/>
-      <c r="Q15" s="127"/>
-      <c r="R15" s="143" t="s">
+      <c r="C15" s="119"/>
+      <c r="D15" s="119"/>
+      <c r="E15" s="119"/>
+      <c r="F15" s="119"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="122"/>
+      <c r="M15" s="122"/>
+      <c r="N15" s="122"/>
+      <c r="O15" s="122"/>
+      <c r="P15" s="122"/>
+      <c r="Q15" s="123"/>
+      <c r="R15" s="124" t="s">
         <v>32</v>
       </c>
-      <c r="S15" s="144"/>
-      <c r="T15" s="144"/>
-      <c r="U15" s="144"/>
-      <c r="V15" s="144"/>
-      <c r="W15" s="144"/>
-      <c r="X15" s="144"/>
-      <c r="Y15" s="144"/>
-      <c r="Z15" s="144"/>
-      <c r="AA15" s="144"/>
-      <c r="AB15" s="144"/>
-      <c r="AC15" s="145"/>
-      <c r="AD15" s="122"/>
-      <c r="AE15" s="123"/>
-      <c r="AF15" s="123"/>
-      <c r="AG15" s="123"/>
-      <c r="AH15" s="123"/>
-      <c r="AI15" s="123"/>
-      <c r="AJ15" s="124"/>
+      <c r="S15" s="125"/>
+      <c r="T15" s="125"/>
+      <c r="U15" s="125"/>
+      <c r="V15" s="125"/>
+      <c r="W15" s="125"/>
+      <c r="X15" s="125"/>
+      <c r="Y15" s="125"/>
+      <c r="Z15" s="125"/>
+      <c r="AA15" s="125"/>
+      <c r="AB15" s="125"/>
+      <c r="AC15" s="126"/>
+      <c r="AD15" s="127"/>
+      <c r="AE15" s="128"/>
+      <c r="AF15" s="128"/>
+      <c r="AG15" s="128"/>
+      <c r="AH15" s="128"/>
+      <c r="AI15" s="128"/>
+      <c r="AJ15" s="129"/>
       <c r="AK15" s="39"/>
     </row>
     <row r="16" spans="1:181" ht="19.5" customHeight="1">
       <c r="A16" s="48"/>
-      <c r="B16" s="128" t="s">
+      <c r="B16" s="118" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="125"/>
-      <c r="K16" s="126"/>
-      <c r="L16" s="126"/>
-      <c r="M16" s="126"/>
-      <c r="N16" s="126"/>
-      <c r="O16" s="126"/>
-      <c r="P16" s="126"/>
-      <c r="Q16" s="127"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="105"/>
-      <c r="T16" s="105"/>
-      <c r="U16" s="105"/>
-      <c r="V16" s="105"/>
-      <c r="W16" s="105"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="105"/>
-      <c r="Z16" s="105"/>
-      <c r="AA16" s="105"/>
-      <c r="AB16" s="105"/>
-      <c r="AC16" s="105"/>
-      <c r="AD16" s="120"/>
-      <c r="AE16" s="120"/>
-      <c r="AF16" s="120"/>
-      <c r="AG16" s="120"/>
-      <c r="AH16" s="120"/>
-      <c r="AI16" s="120"/>
-      <c r="AJ16" s="121"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="119"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="122"/>
+      <c r="M16" s="122"/>
+      <c r="N16" s="122"/>
+      <c r="O16" s="122"/>
+      <c r="P16" s="122"/>
+      <c r="Q16" s="123"/>
+      <c r="R16" s="61"/>
+      <c r="S16" s="61"/>
+      <c r="T16" s="61"/>
+      <c r="U16" s="61"/>
+      <c r="V16" s="61"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="61"/>
+      <c r="Y16" s="61"/>
+      <c r="Z16" s="61"/>
+      <c r="AA16" s="61"/>
+      <c r="AB16" s="61"/>
+      <c r="AC16" s="61"/>
+      <c r="AD16" s="65"/>
+      <c r="AE16" s="65"/>
+      <c r="AF16" s="65"/>
+      <c r="AG16" s="65"/>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="65"/>
+      <c r="AJ16" s="66"/>
       <c r="AK16" s="39"/>
     </row>
     <row r="17" spans="1:37" ht="21.75" customHeight="1">
       <c r="A17" s="48"/>
-      <c r="B17" s="122"/>
-      <c r="C17" s="123"/>
-      <c r="D17" s="123"/>
-      <c r="E17" s="123"/>
-      <c r="F17" s="123"/>
-      <c r="G17" s="123"/>
-      <c r="H17" s="123"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="123"/>
-      <c r="K17" s="123"/>
-      <c r="L17" s="123"/>
-      <c r="M17" s="123"/>
-      <c r="N17" s="123"/>
-      <c r="O17" s="123"/>
-      <c r="P17" s="123"/>
-      <c r="Q17" s="123"/>
-      <c r="R17" s="123"/>
-      <c r="S17" s="123"/>
-      <c r="T17" s="123"/>
-      <c r="U17" s="123"/>
-      <c r="V17" s="123"/>
-      <c r="W17" s="123"/>
-      <c r="X17" s="123"/>
-      <c r="Y17" s="123"/>
-      <c r="Z17" s="123"/>
-      <c r="AA17" s="123"/>
-      <c r="AB17" s="123"/>
-      <c r="AC17" s="123"/>
-      <c r="AD17" s="123"/>
-      <c r="AE17" s="123"/>
-      <c r="AF17" s="123"/>
-      <c r="AG17" s="123"/>
-      <c r="AH17" s="123"/>
-      <c r="AI17" s="123"/>
-      <c r="AJ17" s="124"/>
+      <c r="B17" s="127"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="128"/>
+      <c r="L17" s="128"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="128"/>
+      <c r="P17" s="128"/>
+      <c r="Q17" s="128"/>
+      <c r="R17" s="128"/>
+      <c r="S17" s="128"/>
+      <c r="T17" s="128"/>
+      <c r="U17" s="128"/>
+      <c r="V17" s="128"/>
+      <c r="W17" s="128"/>
+      <c r="X17" s="128"/>
+      <c r="Y17" s="128"/>
+      <c r="Z17" s="128"/>
+      <c r="AA17" s="128"/>
+      <c r="AB17" s="128"/>
+      <c r="AC17" s="128"/>
+      <c r="AD17" s="128"/>
+      <c r="AE17" s="128"/>
+      <c r="AF17" s="128"/>
+      <c r="AG17" s="128"/>
+      <c r="AH17" s="128"/>
+      <c r="AI17" s="128"/>
+      <c r="AJ17" s="129"/>
       <c r="AK17" s="39"/>
     </row>
     <row r="18" spans="1:37" ht="12.75" customHeight="1">
@@ -7442,10 +7442,10 @@
     </row>
     <row r="22" spans="1:37" ht="12.75" customHeight="1">
       <c r="A22" s="37"/>
-      <c r="B22" s="90" t="s">
+      <c r="B22" s="138" t="s">
         <v>34</v>
       </c>
-      <c r="C22" s="92"/>
+      <c r="C22" s="139"/>
       <c r="D22" s="54" t="s">
         <v>27</v>
       </c>
@@ -7462,1319 +7462,1319 @@
         <v>30</v>
       </c>
       <c r="K22" s="56"/>
-      <c r="L22" s="90" t="s">
+      <c r="L22" s="138" t="s">
         <v>31</v>
       </c>
-      <c r="M22" s="91"/>
-      <c r="N22" s="91"/>
-      <c r="O22" s="91"/>
-      <c r="P22" s="87" t="s">
+      <c r="M22" s="145"/>
+      <c r="N22" s="145"/>
+      <c r="O22" s="145"/>
+      <c r="P22" s="136" t="s">
         <v>32</v>
       </c>
-      <c r="Q22" s="89"/>
-      <c r="R22" s="97" t="s">
+      <c r="Q22" s="137"/>
+      <c r="R22" s="133" t="s">
         <v>35</v>
       </c>
-      <c r="S22" s="85"/>
-      <c r="T22" s="85"/>
-      <c r="U22" s="85"/>
-      <c r="V22" s="104" t="s">
+      <c r="S22" s="134"/>
+      <c r="T22" s="134"/>
+      <c r="U22" s="134"/>
+      <c r="V22" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="W22" s="103"/>
-      <c r="X22" s="103"/>
-      <c r="Y22" s="131"/>
-      <c r="Z22" s="88" t="s">
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="67"/>
+      <c r="Z22" s="144" t="s">
         <v>36</v>
       </c>
-      <c r="AA22" s="88"/>
-      <c r="AB22" s="89"/>
-      <c r="AC22" s="97" t="s">
+      <c r="AA22" s="144"/>
+      <c r="AB22" s="137"/>
+      <c r="AC22" s="133" t="s">
         <v>37</v>
       </c>
-      <c r="AD22" s="85"/>
-      <c r="AE22" s="86"/>
-      <c r="AF22" s="85" t="s">
+      <c r="AD22" s="134"/>
+      <c r="AE22" s="135"/>
+      <c r="AF22" s="134" t="s">
         <v>38</v>
       </c>
-      <c r="AG22" s="85"/>
-      <c r="AH22" s="85"/>
-      <c r="AI22" s="85"/>
-      <c r="AJ22" s="86"/>
+      <c r="AG22" s="134"/>
+      <c r="AH22" s="134"/>
+      <c r="AI22" s="134"/>
+      <c r="AJ22" s="135"/>
       <c r="AK22" s="39"/>
     </row>
     <row r="23" spans="1:37" ht="12.75" customHeight="1">
       <c r="A23" s="37"/>
-      <c r="B23" s="118">
+      <c r="B23" s="96">
         <v>20</v>
       </c>
-      <c r="C23" s="119"/>
-      <c r="D23" s="115" t="s">
+      <c r="C23" s="98"/>
+      <c r="D23" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="116"/>
-      <c r="F23" s="115" t="s">
+      <c r="E23" s="63"/>
+      <c r="F23" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="G23" s="116"/>
-      <c r="H23" s="115" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="I23" s="116"/>
-      <c r="J23" s="115" t="s">
+      <c r="I23" s="63"/>
+      <c r="J23" s="62" t="s">
         <v>39</v>
       </c>
-      <c r="K23" s="117"/>
-      <c r="L23" s="118" t="s">
+      <c r="K23" s="64"/>
+      <c r="L23" s="96" t="s">
         <v>42</v>
       </c>
-      <c r="M23" s="132"/>
-      <c r="N23" s="132"/>
-      <c r="O23" s="119"/>
-      <c r="P23" s="102" t="s">
+      <c r="M23" s="97"/>
+      <c r="N23" s="97"/>
+      <c r="O23" s="98"/>
+      <c r="P23" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="Q23" s="102"/>
-      <c r="R23" s="118" t="s">
+      <c r="Q23" s="58"/>
+      <c r="R23" s="96" t="s">
         <v>44</v>
       </c>
-      <c r="S23" s="132"/>
-      <c r="T23" s="132"/>
-      <c r="U23" s="119"/>
-      <c r="V23" s="118" t="s">
+      <c r="S23" s="97"/>
+      <c r="T23" s="97"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="96" t="s">
         <v>45</v>
       </c>
-      <c r="W23" s="132"/>
-      <c r="X23" s="132"/>
-      <c r="Y23" s="119"/>
-      <c r="Z23" s="134">
+      <c r="W23" s="97"/>
+      <c r="X23" s="97"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="106">
         <v>45761</v>
       </c>
-      <c r="AA23" s="133"/>
-      <c r="AB23" s="135"/>
-      <c r="AC23" s="134">
+      <c r="AA23" s="107"/>
+      <c r="AB23" s="108"/>
+      <c r="AC23" s="106">
         <v>45792</v>
       </c>
-      <c r="AD23" s="133"/>
-      <c r="AE23" s="135"/>
-      <c r="AF23" s="139" t="s">
+      <c r="AD23" s="107"/>
+      <c r="AE23" s="108"/>
+      <c r="AF23" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG23" s="140"/>
-      <c r="AH23" s="117"/>
-      <c r="AI23" s="141" t="s">
+      <c r="AG23" s="100"/>
+      <c r="AH23" s="64"/>
+      <c r="AI23" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ23" s="142"/>
+      <c r="AJ23" s="102"/>
       <c r="AK23" s="39"/>
     </row>
     <row r="24" spans="1:37" ht="12.75" customHeight="1">
       <c r="A24" s="37"/>
-      <c r="B24" s="98">
+      <c r="B24" s="130">
         <v>19</v>
       </c>
-      <c r="C24" s="99"/>
-      <c r="D24" s="115" t="s">
+      <c r="C24" s="131"/>
+      <c r="D24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="E24" s="116"/>
-      <c r="F24" s="115" t="s">
+      <c r="E24" s="63"/>
+      <c r="F24" s="62" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="116"/>
-      <c r="H24" s="115" t="s">
+      <c r="G24" s="63"/>
+      <c r="H24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="I24" s="116"/>
-      <c r="J24" s="115" t="s">
+      <c r="I24" s="63"/>
+      <c r="J24" s="62" t="s">
         <v>40</v>
       </c>
-      <c r="K24" s="117"/>
-      <c r="L24" s="118" t="s">
+      <c r="K24" s="64"/>
+      <c r="L24" s="96" t="s">
         <v>48</v>
       </c>
-      <c r="M24" s="132"/>
-      <c r="N24" s="132"/>
-      <c r="O24" s="119"/>
-      <c r="P24" s="102" t="s">
+      <c r="M24" s="97"/>
+      <c r="N24" s="97"/>
+      <c r="O24" s="98"/>
+      <c r="P24" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="102"/>
-      <c r="R24" s="136" t="s">
+      <c r="Q24" s="58"/>
+      <c r="R24" s="103" t="s">
         <v>50</v>
       </c>
-      <c r="S24" s="137"/>
-      <c r="T24" s="137"/>
-      <c r="U24" s="138"/>
-      <c r="V24" s="118" t="s">
+      <c r="S24" s="104"/>
+      <c r="T24" s="104"/>
+      <c r="U24" s="105"/>
+      <c r="V24" s="96" t="s">
         <v>51</v>
       </c>
-      <c r="W24" s="132"/>
-      <c r="X24" s="132"/>
-      <c r="Y24" s="119"/>
-      <c r="Z24" s="134">
+      <c r="W24" s="97"/>
+      <c r="X24" s="97"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="106">
         <v>45717</v>
       </c>
-      <c r="AA24" s="133"/>
-      <c r="AB24" s="135"/>
-      <c r="AC24" s="134">
+      <c r="AA24" s="107"/>
+      <c r="AB24" s="108"/>
+      <c r="AC24" s="106">
         <v>45783</v>
       </c>
-      <c r="AD24" s="133"/>
-      <c r="AE24" s="135"/>
-      <c r="AF24" s="139" t="s">
+      <c r="AD24" s="107"/>
+      <c r="AE24" s="108"/>
+      <c r="AF24" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG24" s="140"/>
-      <c r="AH24" s="117"/>
-      <c r="AI24" s="141" t="s">
+      <c r="AG24" s="100"/>
+      <c r="AH24" s="64"/>
+      <c r="AI24" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ24" s="142"/>
+      <c r="AJ24" s="102"/>
       <c r="AK24" s="39"/>
     </row>
     <row r="25" spans="1:37" ht="12.75" customHeight="1">
       <c r="A25" s="37"/>
-      <c r="B25" s="118">
+      <c r="B25" s="96">
         <v>18</v>
       </c>
-      <c r="C25" s="119"/>
-      <c r="D25" s="118" t="s">
+      <c r="C25" s="98"/>
+      <c r="D25" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E25" s="119"/>
-      <c r="F25" s="115"/>
-      <c r="G25" s="116"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="132"/>
-      <c r="N25" s="132"/>
-      <c r="O25" s="119"/>
-      <c r="P25" s="102"/>
-      <c r="Q25" s="102"/>
-      <c r="R25" s="115"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="118"/>
-      <c r="W25" s="132"/>
-      <c r="X25" s="132"/>
-      <c r="Y25" s="119"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="116"/>
-      <c r="AC25" s="118" t="s">
+      <c r="E25" s="98"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="64"/>
+      <c r="L25" s="96"/>
+      <c r="M25" s="97"/>
+      <c r="N25" s="97"/>
+      <c r="O25" s="98"/>
+      <c r="P25" s="58"/>
+      <c r="Q25" s="58"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="64"/>
+      <c r="T25" s="64"/>
+      <c r="U25" s="64"/>
+      <c r="V25" s="96"/>
+      <c r="W25" s="97"/>
+      <c r="X25" s="97"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="64"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AD25" s="132"/>
-      <c r="AE25" s="119"/>
-      <c r="AF25" s="139" t="s">
+      <c r="AD25" s="97"/>
+      <c r="AE25" s="98"/>
+      <c r="AF25" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG25" s="140"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="141" t="s">
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="64"/>
+      <c r="AI25" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ25" s="142"/>
+      <c r="AJ25" s="102"/>
       <c r="AK25" s="39"/>
     </row>
     <row r="26" spans="1:37" ht="12.75" customHeight="1">
       <c r="A26" s="37"/>
-      <c r="B26" s="98">
+      <c r="B26" s="130">
         <v>17</v>
       </c>
-      <c r="C26" s="99"/>
-      <c r="D26" s="118" t="s">
+      <c r="C26" s="131"/>
+      <c r="D26" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E26" s="119"/>
-      <c r="F26" s="115"/>
-      <c r="G26" s="116"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="116"/>
-      <c r="J26" s="115"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="132"/>
-      <c r="N26" s="132"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="102"/>
-      <c r="Q26" s="102"/>
-      <c r="R26" s="115"/>
-      <c r="S26" s="117"/>
-      <c r="T26" s="117"/>
-      <c r="U26" s="117"/>
-      <c r="V26" s="118"/>
-      <c r="W26" s="132"/>
-      <c r="X26" s="132"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="117"/>
-      <c r="AA26" s="117"/>
-      <c r="AB26" s="116"/>
-      <c r="AC26" s="118" t="s">
+      <c r="E26" s="98"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="64"/>
+      <c r="L26" s="96"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="97"/>
+      <c r="O26" s="98"/>
+      <c r="P26" s="58"/>
+      <c r="Q26" s="58"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="64"/>
+      <c r="T26" s="64"/>
+      <c r="U26" s="64"/>
+      <c r="V26" s="96"/>
+      <c r="W26" s="97"/>
+      <c r="X26" s="97"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="64"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AD26" s="132"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="139" t="s">
+      <c r="AD26" s="97"/>
+      <c r="AE26" s="98"/>
+      <c r="AF26" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG26" s="140"/>
-      <c r="AH26" s="117"/>
-      <c r="AI26" s="141" t="s">
+      <c r="AG26" s="100"/>
+      <c r="AH26" s="64"/>
+      <c r="AI26" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ26" s="142"/>
+      <c r="AJ26" s="102"/>
       <c r="AK26" s="39"/>
     </row>
     <row r="27" spans="1:37" ht="12.75" customHeight="1">
       <c r="A27" s="37"/>
-      <c r="B27" s="118">
+      <c r="B27" s="96">
         <v>16</v>
       </c>
-      <c r="C27" s="119"/>
-      <c r="D27" s="118" t="s">
+      <c r="C27" s="98"/>
+      <c r="D27" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="119"/>
-      <c r="F27" s="115"/>
-      <c r="G27" s="116"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="116"/>
-      <c r="J27" s="115"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="132"/>
-      <c r="N27" s="132"/>
-      <c r="O27" s="119"/>
-      <c r="P27" s="102"/>
-      <c r="Q27" s="102"/>
-      <c r="R27" s="115"/>
-      <c r="S27" s="117"/>
-      <c r="T27" s="117"/>
-      <c r="U27" s="117"/>
-      <c r="V27" s="118"/>
-      <c r="W27" s="132"/>
-      <c r="X27" s="132"/>
-      <c r="Y27" s="119"/>
-      <c r="Z27" s="117"/>
-      <c r="AA27" s="117"/>
-      <c r="AB27" s="116"/>
-      <c r="AC27" s="118" t="s">
+      <c r="E27" s="98"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="64"/>
+      <c r="L27" s="96"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="97"/>
+      <c r="O27" s="98"/>
+      <c r="P27" s="58"/>
+      <c r="Q27" s="58"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="64"/>
+      <c r="T27" s="64"/>
+      <c r="U27" s="64"/>
+      <c r="V27" s="96"/>
+      <c r="W27" s="97"/>
+      <c r="X27" s="97"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="64"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AD27" s="132"/>
-      <c r="AE27" s="119"/>
-      <c r="AF27" s="139" t="s">
+      <c r="AD27" s="97"/>
+      <c r="AE27" s="98"/>
+      <c r="AF27" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG27" s="140"/>
-      <c r="AH27" s="117"/>
-      <c r="AI27" s="141" t="s">
+      <c r="AG27" s="100"/>
+      <c r="AH27" s="64"/>
+      <c r="AI27" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ27" s="142"/>
+      <c r="AJ27" s="102"/>
       <c r="AK27" s="39"/>
     </row>
     <row r="28" spans="1:37" ht="12.75" customHeight="1">
       <c r="A28" s="37"/>
-      <c r="B28" s="98">
+      <c r="B28" s="130">
         <v>15</v>
       </c>
-      <c r="C28" s="99"/>
-      <c r="D28" s="118" t="s">
+      <c r="C28" s="131"/>
+      <c r="D28" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E28" s="119"/>
-      <c r="F28" s="115"/>
-      <c r="G28" s="116"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="116"/>
-      <c r="J28" s="115"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="115"/>
-      <c r="M28" s="117"/>
-      <c r="N28" s="117"/>
-      <c r="O28" s="116"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="115"/>
-      <c r="S28" s="117"/>
-      <c r="T28" s="117"/>
-      <c r="U28" s="117"/>
-      <c r="V28" s="118"/>
-      <c r="W28" s="132"/>
-      <c r="X28" s="132"/>
-      <c r="Y28" s="119"/>
-      <c r="Z28" s="117"/>
-      <c r="AA28" s="117"/>
-      <c r="AB28" s="116"/>
-      <c r="AC28" s="118" t="s">
+      <c r="E28" s="98"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="64"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="64"/>
+      <c r="N28" s="64"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="58"/>
+      <c r="Q28" s="58"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="64"/>
+      <c r="T28" s="64"/>
+      <c r="U28" s="64"/>
+      <c r="V28" s="96"/>
+      <c r="W28" s="97"/>
+      <c r="X28" s="97"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="64"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AD28" s="132"/>
-      <c r="AE28" s="119"/>
-      <c r="AF28" s="139" t="s">
+      <c r="AD28" s="97"/>
+      <c r="AE28" s="98"/>
+      <c r="AF28" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG28" s="140"/>
-      <c r="AH28" s="117"/>
-      <c r="AI28" s="141" t="s">
+      <c r="AG28" s="100"/>
+      <c r="AH28" s="64"/>
+      <c r="AI28" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ28" s="142"/>
+      <c r="AJ28" s="102"/>
       <c r="AK28" s="39"/>
     </row>
     <row r="29" spans="1:37" ht="12.75" customHeight="1">
       <c r="A29" s="37"/>
-      <c r="B29" s="118">
+      <c r="B29" s="96">
         <v>14</v>
       </c>
-      <c r="C29" s="119"/>
-      <c r="D29" s="118" t="s">
+      <c r="C29" s="98"/>
+      <c r="D29" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="E29" s="119"/>
-      <c r="F29" s="115"/>
-      <c r="G29" s="116"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="115"/>
-      <c r="M29" s="117"/>
-      <c r="N29" s="117"/>
-      <c r="O29" s="116"/>
-      <c r="P29" s="102"/>
-      <c r="Q29" s="102"/>
-      <c r="R29" s="115"/>
-      <c r="S29" s="117"/>
-      <c r="T29" s="117"/>
-      <c r="U29" s="117"/>
-      <c r="V29" s="118"/>
-      <c r="W29" s="132"/>
-      <c r="X29" s="132"/>
-      <c r="Y29" s="119"/>
-      <c r="Z29" s="117"/>
-      <c r="AA29" s="117"/>
-      <c r="AB29" s="116"/>
-      <c r="AC29" s="118" t="s">
+      <c r="E29" s="98"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="64"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="64"/>
+      <c r="N29" s="64"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="58"/>
+      <c r="Q29" s="58"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="64"/>
+      <c r="T29" s="64"/>
+      <c r="U29" s="64"/>
+      <c r="V29" s="96"/>
+      <c r="W29" s="97"/>
+      <c r="X29" s="97"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="64"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="AD29" s="132"/>
-      <c r="AE29" s="119"/>
-      <c r="AF29" s="139" t="s">
+      <c r="AD29" s="97"/>
+      <c r="AE29" s="98"/>
+      <c r="AF29" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG29" s="140"/>
-      <c r="AH29" s="117"/>
-      <c r="AI29" s="141" t="s">
+      <c r="AG29" s="100"/>
+      <c r="AH29" s="64"/>
+      <c r="AI29" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ29" s="142"/>
+      <c r="AJ29" s="102"/>
       <c r="AK29" s="39"/>
     </row>
     <row r="30" spans="1:37" ht="12.75" customHeight="1">
       <c r="A30" s="37"/>
-      <c r="B30" s="98">
+      <c r="B30" s="130">
         <v>13</v>
       </c>
-      <c r="C30" s="99"/>
-      <c r="D30" s="115"/>
-      <c r="E30" s="116"/>
-      <c r="F30" s="115"/>
-      <c r="G30" s="116"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="116"/>
-      <c r="J30" s="115"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="115"/>
-      <c r="M30" s="117"/>
-      <c r="N30" s="117"/>
-      <c r="O30" s="116"/>
-      <c r="P30" s="102"/>
-      <c r="Q30" s="102"/>
-      <c r="R30" s="115"/>
-      <c r="S30" s="117"/>
-      <c r="T30" s="117"/>
-      <c r="U30" s="117"/>
-      <c r="V30" s="118"/>
-      <c r="W30" s="132"/>
-      <c r="X30" s="132"/>
-      <c r="Y30" s="119"/>
-      <c r="Z30" s="117"/>
-      <c r="AA30" s="117"/>
-      <c r="AB30" s="116"/>
-      <c r="AC30" s="117"/>
-      <c r="AD30" s="117"/>
-      <c r="AE30" s="116"/>
-      <c r="AF30" s="139" t="s">
+      <c r="C30" s="131"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="58"/>
+      <c r="Q30" s="58"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="64"/>
+      <c r="T30" s="64"/>
+      <c r="U30" s="64"/>
+      <c r="V30" s="96"/>
+      <c r="W30" s="97"/>
+      <c r="X30" s="97"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="64"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="64"/>
+      <c r="AD30" s="64"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG30" s="140"/>
-      <c r="AH30" s="117"/>
-      <c r="AI30" s="141" t="s">
+      <c r="AG30" s="100"/>
+      <c r="AH30" s="64"/>
+      <c r="AI30" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ30" s="142"/>
+      <c r="AJ30" s="102"/>
       <c r="AK30" s="39"/>
     </row>
     <row r="31" spans="1:37" ht="12.75" customHeight="1">
       <c r="A31" s="37"/>
-      <c r="B31" s="118">
+      <c r="B31" s="96">
         <v>12</v>
       </c>
-      <c r="C31" s="119"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="116"/>
-      <c r="F31" s="115"/>
-      <c r="G31" s="116"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="116"/>
-      <c r="J31" s="115"/>
-      <c r="K31" s="117"/>
-      <c r="L31" s="115"/>
-      <c r="M31" s="117"/>
-      <c r="N31" s="117"/>
-      <c r="O31" s="116"/>
-      <c r="P31" s="102"/>
-      <c r="Q31" s="102"/>
-      <c r="R31" s="115"/>
-      <c r="S31" s="117"/>
-      <c r="T31" s="117"/>
-      <c r="U31" s="117"/>
-      <c r="V31" s="118"/>
-      <c r="W31" s="132"/>
-      <c r="X31" s="132"/>
-      <c r="Y31" s="119"/>
-      <c r="Z31" s="117"/>
-      <c r="AA31" s="117"/>
-      <c r="AB31" s="116"/>
-      <c r="AC31" s="117"/>
-      <c r="AD31" s="117"/>
-      <c r="AE31" s="116"/>
-      <c r="AF31" s="139" t="s">
+      <c r="C31" s="98"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="64"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="64"/>
+      <c r="N31" s="64"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="58"/>
+      <c r="Q31" s="58"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="64"/>
+      <c r="T31" s="64"/>
+      <c r="U31" s="64"/>
+      <c r="V31" s="96"/>
+      <c r="W31" s="97"/>
+      <c r="X31" s="97"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="64"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="64"/>
+      <c r="AD31" s="64"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG31" s="140"/>
-      <c r="AH31" s="117"/>
-      <c r="AI31" s="141" t="s">
+      <c r="AG31" s="100"/>
+      <c r="AH31" s="64"/>
+      <c r="AI31" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ31" s="142"/>
+      <c r="AJ31" s="102"/>
       <c r="AK31" s="39"/>
     </row>
     <row r="32" spans="1:37" ht="12.75" customHeight="1">
       <c r="A32" s="37"/>
-      <c r="B32" s="98">
+      <c r="B32" s="130">
         <v>11</v>
       </c>
-      <c r="C32" s="99"/>
-      <c r="D32" s="115"/>
-      <c r="E32" s="116"/>
-      <c r="F32" s="115"/>
-      <c r="G32" s="116"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="115"/>
-      <c r="M32" s="117"/>
-      <c r="N32" s="117"/>
-      <c r="O32" s="116"/>
-      <c r="P32" s="102"/>
-      <c r="Q32" s="102"/>
-      <c r="R32" s="115"/>
-      <c r="S32" s="117"/>
-      <c r="T32" s="117"/>
-      <c r="U32" s="117"/>
-      <c r="V32" s="118"/>
-      <c r="W32" s="132"/>
-      <c r="X32" s="132"/>
-      <c r="Y32" s="119"/>
-      <c r="Z32" s="117"/>
-      <c r="AA32" s="117"/>
-      <c r="AB32" s="116"/>
-      <c r="AC32" s="117"/>
-      <c r="AD32" s="117"/>
-      <c r="AE32" s="116"/>
-      <c r="AF32" s="139" t="s">
+      <c r="C32" s="131"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="64"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="64"/>
+      <c r="N32" s="64"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="58"/>
+      <c r="Q32" s="58"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="64"/>
+      <c r="T32" s="64"/>
+      <c r="U32" s="64"/>
+      <c r="V32" s="96"/>
+      <c r="W32" s="97"/>
+      <c r="X32" s="97"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="64"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="64"/>
+      <c r="AD32" s="64"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG32" s="140"/>
-      <c r="AH32" s="117"/>
-      <c r="AI32" s="141" t="s">
+      <c r="AG32" s="100"/>
+      <c r="AH32" s="64"/>
+      <c r="AI32" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ32" s="142"/>
+      <c r="AJ32" s="102"/>
       <c r="AK32" s="39"/>
     </row>
     <row r="33" spans="1:37" ht="12.75" customHeight="1">
       <c r="A33" s="37"/>
-      <c r="B33" s="118">
+      <c r="B33" s="96">
         <v>10</v>
       </c>
-      <c r="C33" s="119"/>
-      <c r="D33" s="115"/>
-      <c r="E33" s="116"/>
-      <c r="F33" s="115"/>
-      <c r="G33" s="116"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="116"/>
-      <c r="J33" s="115"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="115"/>
-      <c r="M33" s="117"/>
-      <c r="N33" s="117"/>
-      <c r="O33" s="116"/>
-      <c r="P33" s="102"/>
-      <c r="Q33" s="102"/>
-      <c r="R33" s="115"/>
-      <c r="S33" s="117"/>
-      <c r="T33" s="117"/>
-      <c r="U33" s="117"/>
-      <c r="V33" s="118"/>
-      <c r="W33" s="132"/>
-      <c r="X33" s="132"/>
-      <c r="Y33" s="119"/>
-      <c r="Z33" s="117"/>
-      <c r="AA33" s="117"/>
-      <c r="AB33" s="116"/>
-      <c r="AC33" s="117"/>
-      <c r="AD33" s="117"/>
-      <c r="AE33" s="116"/>
-      <c r="AF33" s="139" t="s">
+      <c r="C33" s="98"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="64"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="58"/>
+      <c r="Q33" s="58"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="64"/>
+      <c r="T33" s="64"/>
+      <c r="U33" s="64"/>
+      <c r="V33" s="96"/>
+      <c r="W33" s="97"/>
+      <c r="X33" s="97"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="64"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="64"/>
+      <c r="AD33" s="64"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG33" s="140"/>
-      <c r="AH33" s="117"/>
-      <c r="AI33" s="141" t="s">
+      <c r="AG33" s="100"/>
+      <c r="AH33" s="64"/>
+      <c r="AI33" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ33" s="142"/>
+      <c r="AJ33" s="102"/>
       <c r="AK33" s="39"/>
     </row>
     <row r="34" spans="1:37" ht="12.75" customHeight="1">
       <c r="A34" s="37"/>
-      <c r="B34" s="98">
+      <c r="B34" s="130">
         <v>9</v>
       </c>
-      <c r="C34" s="99"/>
-      <c r="D34" s="115"/>
-      <c r="E34" s="116"/>
-      <c r="F34" s="115"/>
-      <c r="G34" s="116"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="116"/>
-      <c r="J34" s="115"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="115"/>
-      <c r="M34" s="117"/>
-      <c r="N34" s="117"/>
-      <c r="O34" s="116"/>
-      <c r="P34" s="102"/>
-      <c r="Q34" s="102"/>
-      <c r="R34" s="115"/>
-      <c r="S34" s="117"/>
-      <c r="T34" s="117"/>
-      <c r="U34" s="117"/>
-      <c r="V34" s="118"/>
-      <c r="W34" s="132"/>
-      <c r="X34" s="132"/>
-      <c r="Y34" s="119"/>
-      <c r="Z34" s="117"/>
-      <c r="AA34" s="117"/>
-      <c r="AB34" s="116"/>
-      <c r="AC34" s="117"/>
-      <c r="AD34" s="117"/>
-      <c r="AE34" s="116"/>
-      <c r="AF34" s="139" t="s">
+      <c r="C34" s="131"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="64"/>
+      <c r="N34" s="64"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="58"/>
+      <c r="Q34" s="58"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="64"/>
+      <c r="T34" s="64"/>
+      <c r="U34" s="64"/>
+      <c r="V34" s="96"/>
+      <c r="W34" s="97"/>
+      <c r="X34" s="97"/>
+      <c r="Y34" s="98"/>
+      <c r="Z34" s="64"/>
+      <c r="AA34" s="64"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="64"/>
+      <c r="AD34" s="64"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG34" s="140"/>
-      <c r="AH34" s="117"/>
-      <c r="AI34" s="141" t="s">
+      <c r="AG34" s="100"/>
+      <c r="AH34" s="64"/>
+      <c r="AI34" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ34" s="142"/>
+      <c r="AJ34" s="102"/>
       <c r="AK34" s="39"/>
     </row>
     <row r="35" spans="1:37" ht="12.75" customHeight="1">
       <c r="A35" s="37"/>
-      <c r="B35" s="118">
+      <c r="B35" s="96">
         <v>8</v>
       </c>
-      <c r="C35" s="119"/>
-      <c r="D35" s="115"/>
-      <c r="E35" s="116"/>
-      <c r="F35" s="115"/>
-      <c r="G35" s="116"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="115"/>
-      <c r="M35" s="117"/>
-      <c r="N35" s="117"/>
-      <c r="O35" s="116"/>
-      <c r="P35" s="102"/>
-      <c r="Q35" s="102"/>
-      <c r="R35" s="115"/>
-      <c r="S35" s="117"/>
-      <c r="T35" s="117"/>
-      <c r="U35" s="117"/>
-      <c r="V35" s="118"/>
-      <c r="W35" s="132"/>
-      <c r="X35" s="132"/>
-      <c r="Y35" s="119"/>
-      <c r="Z35" s="117"/>
-      <c r="AA35" s="117"/>
-      <c r="AB35" s="116"/>
-      <c r="AC35" s="117"/>
-      <c r="AD35" s="117"/>
-      <c r="AE35" s="116"/>
-      <c r="AF35" s="139" t="s">
+      <c r="C35" s="98"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="63"/>
+      <c r="F35" s="62"/>
+      <c r="G35" s="63"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="63"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="64"/>
+      <c r="N35" s="64"/>
+      <c r="O35" s="63"/>
+      <c r="P35" s="58"/>
+      <c r="Q35" s="58"/>
+      <c r="R35" s="62"/>
+      <c r="S35" s="64"/>
+      <c r="T35" s="64"/>
+      <c r="U35" s="64"/>
+      <c r="V35" s="96"/>
+      <c r="W35" s="97"/>
+      <c r="X35" s="97"/>
+      <c r="Y35" s="98"/>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="64"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="64"/>
+      <c r="AD35" s="64"/>
+      <c r="AE35" s="63"/>
+      <c r="AF35" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG35" s="140"/>
-      <c r="AH35" s="117"/>
-      <c r="AI35" s="141" t="s">
+      <c r="AG35" s="100"/>
+      <c r="AH35" s="64"/>
+      <c r="AI35" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ35" s="142"/>
+      <c r="AJ35" s="102"/>
       <c r="AK35" s="39"/>
     </row>
     <row r="36" spans="1:37" ht="12.75" customHeight="1">
       <c r="A36" s="37"/>
-      <c r="B36" s="98">
+      <c r="B36" s="130">
         <v>7</v>
       </c>
-      <c r="C36" s="99"/>
-      <c r="D36" s="115"/>
-      <c r="E36" s="116"/>
-      <c r="F36" s="115"/>
-      <c r="G36" s="116"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="116"/>
-      <c r="J36" s="115"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="115"/>
-      <c r="M36" s="117"/>
-      <c r="N36" s="117"/>
-      <c r="O36" s="116"/>
-      <c r="P36" s="102"/>
-      <c r="Q36" s="102"/>
-      <c r="R36" s="115"/>
-      <c r="S36" s="117"/>
-      <c r="T36" s="117"/>
-      <c r="U36" s="117"/>
-      <c r="V36" s="118"/>
-      <c r="W36" s="132"/>
-      <c r="X36" s="132"/>
-      <c r="Y36" s="119"/>
-      <c r="Z36" s="117"/>
-      <c r="AA36" s="117"/>
-      <c r="AB36" s="116"/>
-      <c r="AC36" s="117"/>
-      <c r="AD36" s="117"/>
-      <c r="AE36" s="116"/>
-      <c r="AF36" s="139" t="s">
+      <c r="C36" s="131"/>
+      <c r="D36" s="62"/>
+      <c r="E36" s="63"/>
+      <c r="F36" s="62"/>
+      <c r="G36" s="63"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="63"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="64"/>
+      <c r="N36" s="64"/>
+      <c r="O36" s="63"/>
+      <c r="P36" s="58"/>
+      <c r="Q36" s="58"/>
+      <c r="R36" s="62"/>
+      <c r="S36" s="64"/>
+      <c r="T36" s="64"/>
+      <c r="U36" s="64"/>
+      <c r="V36" s="96"/>
+      <c r="W36" s="97"/>
+      <c r="X36" s="97"/>
+      <c r="Y36" s="98"/>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="64"/>
+      <c r="AB36" s="63"/>
+      <c r="AC36" s="64"/>
+      <c r="AD36" s="64"/>
+      <c r="AE36" s="63"/>
+      <c r="AF36" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG36" s="140"/>
-      <c r="AH36" s="117"/>
-      <c r="AI36" s="141" t="s">
+      <c r="AG36" s="100"/>
+      <c r="AH36" s="64"/>
+      <c r="AI36" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ36" s="142"/>
+      <c r="AJ36" s="102"/>
       <c r="AK36" s="39"/>
     </row>
     <row r="37" spans="1:37" ht="12.75" customHeight="1">
       <c r="A37" s="37"/>
-      <c r="B37" s="118">
+      <c r="B37" s="96">
         <v>6</v>
       </c>
-      <c r="C37" s="119"/>
-      <c r="D37" s="115"/>
-      <c r="E37" s="116"/>
-      <c r="F37" s="115"/>
-      <c r="G37" s="116"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="116"/>
-      <c r="J37" s="115"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="115"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="116"/>
-      <c r="P37" s="102"/>
-      <c r="Q37" s="102"/>
-      <c r="R37" s="115"/>
-      <c r="S37" s="117"/>
-      <c r="T37" s="117"/>
-      <c r="U37" s="117"/>
-      <c r="V37" s="118"/>
-      <c r="W37" s="132"/>
-      <c r="X37" s="132"/>
-      <c r="Y37" s="119"/>
-      <c r="Z37" s="117"/>
-      <c r="AA37" s="117"/>
-      <c r="AB37" s="116"/>
-      <c r="AC37" s="117"/>
-      <c r="AD37" s="117"/>
-      <c r="AE37" s="116"/>
-      <c r="AF37" s="139" t="s">
+      <c r="C37" s="98"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="63"/>
+      <c r="F37" s="62"/>
+      <c r="G37" s="63"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="63"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="63"/>
+      <c r="P37" s="58"/>
+      <c r="Q37" s="58"/>
+      <c r="R37" s="62"/>
+      <c r="S37" s="64"/>
+      <c r="T37" s="64"/>
+      <c r="U37" s="64"/>
+      <c r="V37" s="96"/>
+      <c r="W37" s="97"/>
+      <c r="X37" s="97"/>
+      <c r="Y37" s="98"/>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="64"/>
+      <c r="AB37" s="63"/>
+      <c r="AC37" s="64"/>
+      <c r="AD37" s="64"/>
+      <c r="AE37" s="63"/>
+      <c r="AF37" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG37" s="140"/>
-      <c r="AH37" s="117"/>
-      <c r="AI37" s="141" t="s">
+      <c r="AG37" s="100"/>
+      <c r="AH37" s="64"/>
+      <c r="AI37" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ37" s="142"/>
+      <c r="AJ37" s="102"/>
       <c r="AK37" s="39"/>
     </row>
     <row r="38" spans="1:37" ht="12.75" customHeight="1">
       <c r="A38" s="37"/>
-      <c r="B38" s="98">
+      <c r="B38" s="130">
         <v>5</v>
       </c>
-      <c r="C38" s="99"/>
-      <c r="D38" s="115"/>
-      <c r="E38" s="116"/>
-      <c r="F38" s="115"/>
-      <c r="G38" s="116"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="116"/>
-      <c r="J38" s="115"/>
-      <c r="K38" s="117"/>
-      <c r="L38" s="115"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="116"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="115"/>
-      <c r="S38" s="117"/>
-      <c r="T38" s="117"/>
-      <c r="U38" s="117"/>
-      <c r="V38" s="118"/>
-      <c r="W38" s="132"/>
-      <c r="X38" s="132"/>
-      <c r="Y38" s="119"/>
-      <c r="Z38" s="117"/>
-      <c r="AA38" s="117"/>
-      <c r="AB38" s="116"/>
-      <c r="AC38" s="117"/>
-      <c r="AD38" s="117"/>
-      <c r="AE38" s="116"/>
-      <c r="AF38" s="139" t="s">
+      <c r="C38" s="131"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="64"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="63"/>
+      <c r="P38" s="58"/>
+      <c r="Q38" s="58"/>
+      <c r="R38" s="62"/>
+      <c r="S38" s="64"/>
+      <c r="T38" s="64"/>
+      <c r="U38" s="64"/>
+      <c r="V38" s="96"/>
+      <c r="W38" s="97"/>
+      <c r="X38" s="97"/>
+      <c r="Y38" s="98"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="64"/>
+      <c r="AB38" s="63"/>
+      <c r="AC38" s="64"/>
+      <c r="AD38" s="64"/>
+      <c r="AE38" s="63"/>
+      <c r="AF38" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG38" s="140"/>
-      <c r="AH38" s="117"/>
-      <c r="AI38" s="141" t="s">
+      <c r="AG38" s="100"/>
+      <c r="AH38" s="64"/>
+      <c r="AI38" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ38" s="142"/>
+      <c r="AJ38" s="102"/>
       <c r="AK38" s="39"/>
     </row>
     <row r="39" spans="1:37" ht="12.75" customHeight="1">
       <c r="A39" s="37"/>
-      <c r="B39" s="118">
+      <c r="B39" s="96">
         <v>4</v>
       </c>
-      <c r="C39" s="119"/>
-      <c r="D39" s="115"/>
-      <c r="E39" s="116"/>
-      <c r="F39" s="115"/>
-      <c r="G39" s="116"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="116"/>
-      <c r="J39" s="115"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="115"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="116"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="115"/>
-      <c r="S39" s="117"/>
-      <c r="T39" s="117"/>
-      <c r="U39" s="117"/>
-      <c r="V39" s="118"/>
-      <c r="W39" s="132"/>
-      <c r="X39" s="132"/>
-      <c r="Y39" s="119"/>
-      <c r="Z39" s="117"/>
-      <c r="AA39" s="117"/>
-      <c r="AB39" s="116"/>
-      <c r="AC39" s="117"/>
-      <c r="AD39" s="117"/>
-      <c r="AE39" s="116"/>
-      <c r="AF39" s="139" t="s">
+      <c r="C39" s="98"/>
+      <c r="D39" s="62"/>
+      <c r="E39" s="63"/>
+      <c r="F39" s="62"/>
+      <c r="G39" s="63"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="63"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="64"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="63"/>
+      <c r="P39" s="58"/>
+      <c r="Q39" s="58"/>
+      <c r="R39" s="62"/>
+      <c r="S39" s="64"/>
+      <c r="T39" s="64"/>
+      <c r="U39" s="64"/>
+      <c r="V39" s="96"/>
+      <c r="W39" s="97"/>
+      <c r="X39" s="97"/>
+      <c r="Y39" s="98"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="64"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="64"/>
+      <c r="AD39" s="64"/>
+      <c r="AE39" s="63"/>
+      <c r="AF39" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG39" s="140"/>
-      <c r="AH39" s="117"/>
-      <c r="AI39" s="141" t="s">
+      <c r="AG39" s="100"/>
+      <c r="AH39" s="64"/>
+      <c r="AI39" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ39" s="142"/>
+      <c r="AJ39" s="102"/>
       <c r="AK39" s="39"/>
     </row>
     <row r="40" spans="1:37" ht="12.75" customHeight="1">
       <c r="A40" s="37"/>
-      <c r="B40" s="98">
+      <c r="B40" s="130">
         <v>3</v>
       </c>
-      <c r="C40" s="99"/>
-      <c r="D40" s="115"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="115"/>
-      <c r="G40" s="116"/>
-      <c r="H40" s="115"/>
-      <c r="I40" s="116"/>
-      <c r="J40" s="115"/>
-      <c r="K40" s="117"/>
-      <c r="L40" s="115"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="116"/>
-      <c r="P40" s="102"/>
-      <c r="Q40" s="102"/>
-      <c r="R40" s="115"/>
-      <c r="S40" s="117"/>
-      <c r="T40" s="117"/>
-      <c r="U40" s="117"/>
-      <c r="V40" s="118"/>
-      <c r="W40" s="132"/>
-      <c r="X40" s="132"/>
-      <c r="Y40" s="119"/>
-      <c r="Z40" s="117"/>
-      <c r="AA40" s="117"/>
-      <c r="AB40" s="116"/>
-      <c r="AC40" s="117"/>
-      <c r="AD40" s="117"/>
-      <c r="AE40" s="116"/>
-      <c r="AF40" s="139" t="s">
+      <c r="C40" s="131"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="64"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="63"/>
+      <c r="P40" s="58"/>
+      <c r="Q40" s="58"/>
+      <c r="R40" s="62"/>
+      <c r="S40" s="64"/>
+      <c r="T40" s="64"/>
+      <c r="U40" s="64"/>
+      <c r="V40" s="96"/>
+      <c r="W40" s="97"/>
+      <c r="X40" s="97"/>
+      <c r="Y40" s="98"/>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="64"/>
+      <c r="AB40" s="63"/>
+      <c r="AC40" s="64"/>
+      <c r="AD40" s="64"/>
+      <c r="AE40" s="63"/>
+      <c r="AF40" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG40" s="140"/>
-      <c r="AH40" s="117"/>
-      <c r="AI40" s="141" t="s">
+      <c r="AG40" s="100"/>
+      <c r="AH40" s="64"/>
+      <c r="AI40" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ40" s="142"/>
+      <c r="AJ40" s="102"/>
       <c r="AK40" s="39"/>
     </row>
     <row r="41" spans="1:37" ht="12.75" customHeight="1">
       <c r="A41" s="37"/>
-      <c r="B41" s="118">
+      <c r="B41" s="96">
         <v>2</v>
       </c>
-      <c r="C41" s="119"/>
-      <c r="D41" s="115"/>
-      <c r="E41" s="116"/>
-      <c r="F41" s="115"/>
-      <c r="G41" s="116"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="116"/>
-      <c r="J41" s="115"/>
-      <c r="K41" s="117"/>
-      <c r="L41" s="115"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="116"/>
-      <c r="P41" s="102"/>
-      <c r="Q41" s="102"/>
-      <c r="R41" s="115"/>
-      <c r="S41" s="117"/>
-      <c r="T41" s="117"/>
-      <c r="U41" s="117"/>
-      <c r="V41" s="118"/>
-      <c r="W41" s="132"/>
-      <c r="X41" s="132"/>
-      <c r="Y41" s="119"/>
-      <c r="Z41" s="117"/>
-      <c r="AA41" s="117"/>
-      <c r="AB41" s="116"/>
-      <c r="AC41" s="117"/>
-      <c r="AD41" s="117"/>
-      <c r="AE41" s="116"/>
-      <c r="AF41" s="139" t="s">
+      <c r="C41" s="98"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="63"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="63"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="63"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="64"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="63"/>
+      <c r="P41" s="58"/>
+      <c r="Q41" s="58"/>
+      <c r="R41" s="62"/>
+      <c r="S41" s="64"/>
+      <c r="T41" s="64"/>
+      <c r="U41" s="64"/>
+      <c r="V41" s="96"/>
+      <c r="W41" s="97"/>
+      <c r="X41" s="97"/>
+      <c r="Y41" s="98"/>
+      <c r="Z41" s="64"/>
+      <c r="AA41" s="64"/>
+      <c r="AB41" s="63"/>
+      <c r="AC41" s="64"/>
+      <c r="AD41" s="64"/>
+      <c r="AE41" s="63"/>
+      <c r="AF41" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG41" s="140"/>
-      <c r="AH41" s="117"/>
-      <c r="AI41" s="141" t="s">
+      <c r="AG41" s="100"/>
+      <c r="AH41" s="64"/>
+      <c r="AI41" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ41" s="142"/>
+      <c r="AJ41" s="102"/>
       <c r="AK41" s="39"/>
     </row>
     <row r="42" spans="1:37" ht="12.75" customHeight="1">
       <c r="A42" s="37"/>
-      <c r="B42" s="118">
+      <c r="B42" s="96">
         <v>1</v>
       </c>
-      <c r="C42" s="119"/>
-      <c r="D42" s="115"/>
-      <c r="E42" s="116"/>
-      <c r="F42" s="115"/>
-      <c r="G42" s="116"/>
-      <c r="H42" s="115"/>
-      <c r="I42" s="116"/>
-      <c r="J42" s="115"/>
-      <c r="K42" s="117"/>
-      <c r="L42" s="115"/>
-      <c r="M42" s="117"/>
-      <c r="N42" s="117"/>
-      <c r="O42" s="116"/>
-      <c r="P42" s="102"/>
-      <c r="Q42" s="102"/>
-      <c r="R42" s="115"/>
-      <c r="S42" s="117"/>
-      <c r="T42" s="117"/>
-      <c r="U42" s="117"/>
-      <c r="V42" s="118"/>
-      <c r="W42" s="132"/>
-      <c r="X42" s="132"/>
-      <c r="Y42" s="119"/>
-      <c r="Z42" s="117"/>
-      <c r="AA42" s="117"/>
-      <c r="AB42" s="116"/>
-      <c r="AC42" s="117"/>
-      <c r="AD42" s="117"/>
-      <c r="AE42" s="116"/>
-      <c r="AF42" s="139" t="s">
+      <c r="C42" s="98"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="63"/>
+      <c r="F42" s="62"/>
+      <c r="G42" s="63"/>
+      <c r="H42" s="62"/>
+      <c r="I42" s="63"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="64"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="63"/>
+      <c r="P42" s="58"/>
+      <c r="Q42" s="58"/>
+      <c r="R42" s="62"/>
+      <c r="S42" s="64"/>
+      <c r="T42" s="64"/>
+      <c r="U42" s="64"/>
+      <c r="V42" s="96"/>
+      <c r="W42" s="97"/>
+      <c r="X42" s="97"/>
+      <c r="Y42" s="98"/>
+      <c r="Z42" s="64"/>
+      <c r="AA42" s="64"/>
+      <c r="AB42" s="63"/>
+      <c r="AC42" s="64"/>
+      <c r="AD42" s="64"/>
+      <c r="AE42" s="63"/>
+      <c r="AF42" s="99" t="s">
         <v>46</v>
       </c>
-      <c r="AG42" s="140"/>
-      <c r="AH42" s="117"/>
-      <c r="AI42" s="141" t="s">
+      <c r="AG42" s="100"/>
+      <c r="AH42" s="64"/>
+      <c r="AI42" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="AJ42" s="142"/>
+      <c r="AJ42" s="102"/>
       <c r="AK42" s="39"/>
     </row>
     <row r="43" spans="1:37" ht="12.75" customHeight="1">
       <c r="A43" s="37"/>
-      <c r="B43" s="100"/>
-      <c r="C43" s="100"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="101"/>
-      <c r="F43" s="101"/>
-      <c r="G43" s="101"/>
-      <c r="H43" s="101"/>
-      <c r="I43" s="101"/>
-      <c r="J43" s="101"/>
-      <c r="K43" s="101"/>
-      <c r="L43" s="101"/>
-      <c r="M43" s="101"/>
-      <c r="N43" s="101"/>
-      <c r="O43" s="101"/>
-      <c r="P43" s="101"/>
-      <c r="Q43" s="101"/>
-      <c r="R43" s="101"/>
-      <c r="S43" s="101"/>
-      <c r="T43" s="101"/>
-      <c r="U43" s="101"/>
-      <c r="V43" s="101"/>
-      <c r="W43" s="101"/>
-      <c r="X43" s="101"/>
-      <c r="Y43" s="101"/>
-      <c r="Z43" s="101"/>
-      <c r="AA43" s="101"/>
-      <c r="AB43" s="101"/>
-      <c r="AC43" s="101"/>
-      <c r="AD43" s="101"/>
-      <c r="AE43" s="101"/>
-      <c r="AF43" s="101"/>
-      <c r="AG43" s="101"/>
-      <c r="AH43" s="101"/>
-      <c r="AI43" s="101"/>
-      <c r="AJ43" s="101"/>
+      <c r="B43" s="132"/>
+      <c r="C43" s="132"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="57"/>
+      <c r="I43" s="57"/>
+      <c r="J43" s="57"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="57"/>
+      <c r="M43" s="57"/>
+      <c r="N43" s="57"/>
+      <c r="O43" s="57"/>
+      <c r="P43" s="57"/>
+      <c r="Q43" s="57"/>
+      <c r="R43" s="57"/>
+      <c r="S43" s="57"/>
+      <c r="T43" s="57"/>
+      <c r="U43" s="57"/>
+      <c r="V43" s="57"/>
+      <c r="W43" s="57"/>
+      <c r="X43" s="57"/>
+      <c r="Y43" s="57"/>
+      <c r="Z43" s="57"/>
+      <c r="AA43" s="57"/>
+      <c r="AB43" s="57"/>
+      <c r="AC43" s="57"/>
+      <c r="AD43" s="57"/>
+      <c r="AE43" s="57"/>
+      <c r="AF43" s="57"/>
+      <c r="AG43" s="57"/>
+      <c r="AH43" s="57"/>
+      <c r="AI43" s="57"/>
+      <c r="AJ43" s="57"/>
       <c r="AK43" s="39"/>
     </row>
     <row r="44" spans="1:37" ht="12.75" customHeight="1">
       <c r="A44" s="37"/>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
-      <c r="J44" s="101"/>
-      <c r="K44" s="101"/>
-      <c r="L44" s="101"/>
-      <c r="M44" s="101"/>
-      <c r="N44" s="101"/>
-      <c r="O44" s="101"/>
-      <c r="P44" s="101"/>
-      <c r="Q44" s="101"/>
-      <c r="R44" s="101"/>
-      <c r="S44" s="101"/>
-      <c r="T44" s="101"/>
-      <c r="U44" s="101"/>
-      <c r="V44" s="101"/>
-      <c r="W44" s="101"/>
-      <c r="X44" s="101"/>
-      <c r="Y44" s="101"/>
-      <c r="Z44" s="101"/>
-      <c r="AA44" s="101"/>
-      <c r="AB44" s="101"/>
-      <c r="AC44" s="101"/>
-      <c r="AD44" s="101"/>
-      <c r="AE44" s="101"/>
-      <c r="AF44" s="101"/>
-      <c r="AG44" s="101"/>
-      <c r="AH44" s="101"/>
-      <c r="AI44" s="101"/>
-      <c r="AJ44" s="101"/>
+      <c r="B44" s="57"/>
+      <c r="C44" s="57"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
+      <c r="J44" s="57"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="57"/>
+      <c r="M44" s="57"/>
+      <c r="N44" s="57"/>
+      <c r="O44" s="57"/>
+      <c r="P44" s="57"/>
+      <c r="Q44" s="57"/>
+      <c r="R44" s="57"/>
+      <c r="S44" s="57"/>
+      <c r="T44" s="57"/>
+      <c r="U44" s="57"/>
+      <c r="V44" s="57"/>
+      <c r="W44" s="57"/>
+      <c r="X44" s="57"/>
+      <c r="Y44" s="57"/>
+      <c r="Z44" s="57"/>
+      <c r="AA44" s="57"/>
+      <c r="AB44" s="57"/>
+      <c r="AC44" s="57"/>
+      <c r="AD44" s="57"/>
+      <c r="AE44" s="57"/>
+      <c r="AF44" s="57"/>
+      <c r="AG44" s="57"/>
+      <c r="AH44" s="57"/>
+      <c r="AI44" s="57"/>
+      <c r="AJ44" s="57"/>
       <c r="AK44" s="39"/>
     </row>
     <row r="45" spans="1:37" ht="12.75" customHeight="1">
       <c r="A45" s="37"/>
-      <c r="B45" s="101"/>
-      <c r="C45" s="101"/>
-      <c r="D45" s="101"/>
-      <c r="E45" s="101"/>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
-      <c r="J45" s="101"/>
-      <c r="K45" s="101"/>
-      <c r="L45" s="101"/>
-      <c r="M45" s="101"/>
-      <c r="N45" s="101"/>
-      <c r="O45" s="101"/>
-      <c r="P45" s="101"/>
-      <c r="Q45" s="101"/>
-      <c r="R45" s="101"/>
-      <c r="S45" s="101"/>
-      <c r="T45" s="101"/>
-      <c r="U45" s="101"/>
-      <c r="V45" s="101"/>
-      <c r="W45" s="101"/>
-      <c r="X45" s="101"/>
-      <c r="Y45" s="101"/>
-      <c r="Z45" s="101"/>
-      <c r="AA45" s="101"/>
-      <c r="AB45" s="101"/>
-      <c r="AC45" s="101"/>
-      <c r="AD45" s="101"/>
-      <c r="AE45" s="101"/>
-      <c r="AF45" s="101"/>
-      <c r="AG45" s="101"/>
-      <c r="AH45" s="101"/>
-      <c r="AI45" s="101"/>
-      <c r="AJ45" s="101"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
+      <c r="H45" s="57"/>
+      <c r="I45" s="57"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="57"/>
+      <c r="R45" s="57"/>
+      <c r="S45" s="57"/>
+      <c r="T45" s="57"/>
+      <c r="U45" s="57"/>
+      <c r="V45" s="57"/>
+      <c r="W45" s="57"/>
+      <c r="X45" s="57"/>
+      <c r="Y45" s="57"/>
+      <c r="Z45" s="57"/>
+      <c r="AA45" s="57"/>
+      <c r="AB45" s="57"/>
+      <c r="AC45" s="57"/>
+      <c r="AD45" s="57"/>
+      <c r="AE45" s="57"/>
+      <c r="AF45" s="57"/>
+      <c r="AG45" s="57"/>
+      <c r="AH45" s="57"/>
+      <c r="AI45" s="57"/>
+      <c r="AJ45" s="57"/>
       <c r="AK45" s="39"/>
     </row>
     <row r="46" spans="1:37" ht="12.75" customHeight="1">
       <c r="A46" s="37"/>
-      <c r="B46" s="101"/>
-      <c r="C46" s="101"/>
-      <c r="D46" s="101"/>
-      <c r="E46" s="101"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
-      <c r="J46" s="101"/>
-      <c r="K46" s="101"/>
-      <c r="L46" s="101"/>
-      <c r="M46" s="101"/>
-      <c r="N46" s="101"/>
-      <c r="O46" s="101"/>
-      <c r="P46" s="101"/>
-      <c r="Q46" s="101"/>
-      <c r="R46" s="101"/>
-      <c r="S46" s="101"/>
-      <c r="T46" s="101"/>
-      <c r="U46" s="101"/>
-      <c r="V46" s="101"/>
-      <c r="W46" s="101"/>
-      <c r="X46" s="101"/>
-      <c r="Y46" s="101"/>
-      <c r="Z46" s="101"/>
-      <c r="AA46" s="101"/>
-      <c r="AB46" s="101"/>
-      <c r="AC46" s="101"/>
-      <c r="AD46" s="101"/>
-      <c r="AE46" s="101"/>
-      <c r="AF46" s="101"/>
-      <c r="AG46" s="101"/>
-      <c r="AH46" s="101"/>
-      <c r="AI46" s="101"/>
-      <c r="AJ46" s="101"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="57"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
+      <c r="F46" s="57"/>
+      <c r="G46" s="57"/>
+      <c r="H46" s="57"/>
+      <c r="I46" s="57"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="57"/>
+      <c r="R46" s="57"/>
+      <c r="S46" s="57"/>
+      <c r="T46" s="57"/>
+      <c r="U46" s="57"/>
+      <c r="V46" s="57"/>
+      <c r="W46" s="57"/>
+      <c r="X46" s="57"/>
+      <c r="Y46" s="57"/>
+      <c r="Z46" s="57"/>
+      <c r="AA46" s="57"/>
+      <c r="AB46" s="57"/>
+      <c r="AC46" s="57"/>
+      <c r="AD46" s="57"/>
+      <c r="AE46" s="57"/>
+      <c r="AF46" s="57"/>
+      <c r="AG46" s="57"/>
+      <c r="AH46" s="57"/>
+      <c r="AI46" s="57"/>
+      <c r="AJ46" s="57"/>
       <c r="AK46" s="39"/>
     </row>
     <row r="47" spans="1:37" ht="12.75" customHeight="1">
       <c r="A47" s="37"/>
-      <c r="B47" s="114" t="s">
+      <c r="B47" s="109" t="s">
         <v>53</v>
       </c>
-      <c r="C47" s="106"/>
-      <c r="D47" s="106"/>
-      <c r="E47" s="106"/>
-      <c r="F47" s="106"/>
-      <c r="G47" s="106"/>
-      <c r="H47" s="106"/>
-      <c r="I47" s="106"/>
-      <c r="J47" s="106"/>
-      <c r="K47" s="106"/>
-      <c r="L47" s="106"/>
-      <c r="M47" s="106"/>
-      <c r="N47" s="106"/>
-      <c r="O47" s="106"/>
-      <c r="P47" s="106"/>
-      <c r="Q47" s="106"/>
-      <c r="R47" s="106"/>
-      <c r="S47" s="106"/>
-      <c r="T47" s="106"/>
-      <c r="U47" s="106"/>
-      <c r="V47" s="106"/>
-      <c r="W47" s="106"/>
-      <c r="X47" s="106"/>
-      <c r="Y47" s="106"/>
-      <c r="Z47" s="106"/>
-      <c r="AA47" s="106"/>
-      <c r="AB47" s="106"/>
-      <c r="AC47" s="106"/>
-      <c r="AD47" s="106"/>
-      <c r="AE47" s="106"/>
-      <c r="AF47" s="106"/>
-      <c r="AG47" s="106"/>
-      <c r="AH47" s="106"/>
-      <c r="AI47" s="106"/>
-      <c r="AJ47" s="107"/>
+      <c r="C47" s="110"/>
+      <c r="D47" s="110"/>
+      <c r="E47" s="110"/>
+      <c r="F47" s="110"/>
+      <c r="G47" s="110"/>
+      <c r="H47" s="110"/>
+      <c r="I47" s="110"/>
+      <c r="J47" s="110"/>
+      <c r="K47" s="110"/>
+      <c r="L47" s="110"/>
+      <c r="M47" s="110"/>
+      <c r="N47" s="110"/>
+      <c r="O47" s="110"/>
+      <c r="P47" s="110"/>
+      <c r="Q47" s="110"/>
+      <c r="R47" s="110"/>
+      <c r="S47" s="110"/>
+      <c r="T47" s="110"/>
+      <c r="U47" s="110"/>
+      <c r="V47" s="110"/>
+      <c r="W47" s="110"/>
+      <c r="X47" s="110"/>
+      <c r="Y47" s="110"/>
+      <c r="Z47" s="110"/>
+      <c r="AA47" s="110"/>
+      <c r="AB47" s="110"/>
+      <c r="AC47" s="110"/>
+      <c r="AD47" s="110"/>
+      <c r="AE47" s="110"/>
+      <c r="AF47" s="110"/>
+      <c r="AG47" s="110"/>
+      <c r="AH47" s="110"/>
+      <c r="AI47" s="110"/>
+      <c r="AJ47" s="111"/>
       <c r="AK47" s="39"/>
     </row>
     <row r="48" spans="1:37" ht="12.75" customHeight="1">
       <c r="A48" s="37"/>
-      <c r="B48" s="108"/>
-      <c r="C48" s="109"/>
-      <c r="D48" s="109"/>
-      <c r="E48" s="109"/>
-      <c r="F48" s="109"/>
-      <c r="G48" s="109"/>
-      <c r="H48" s="109"/>
-      <c r="I48" s="109"/>
-      <c r="J48" s="109"/>
-      <c r="K48" s="109"/>
-      <c r="L48" s="109"/>
-      <c r="M48" s="109"/>
-      <c r="N48" s="109"/>
-      <c r="O48" s="109"/>
-      <c r="P48" s="109"/>
-      <c r="Q48" s="109"/>
-      <c r="R48" s="109"/>
-      <c r="S48" s="109"/>
-      <c r="T48" s="109"/>
-      <c r="U48" s="109"/>
-      <c r="V48" s="109"/>
-      <c r="W48" s="109"/>
-      <c r="X48" s="109"/>
-      <c r="Y48" s="109"/>
-      <c r="Z48" s="109"/>
-      <c r="AA48" s="109"/>
-      <c r="AB48" s="109"/>
-      <c r="AC48" s="109"/>
-      <c r="AD48" s="109"/>
-      <c r="AE48" s="109"/>
-      <c r="AF48" s="109"/>
-      <c r="AG48" s="109"/>
-      <c r="AH48" s="109"/>
-      <c r="AI48" s="109"/>
-      <c r="AJ48" s="110"/>
+      <c r="B48" s="112"/>
+      <c r="C48" s="113"/>
+      <c r="D48" s="113"/>
+      <c r="E48" s="113"/>
+      <c r="F48" s="113"/>
+      <c r="G48" s="113"/>
+      <c r="H48" s="113"/>
+      <c r="I48" s="113"/>
+      <c r="J48" s="113"/>
+      <c r="K48" s="113"/>
+      <c r="L48" s="113"/>
+      <c r="M48" s="113"/>
+      <c r="N48" s="113"/>
+      <c r="O48" s="113"/>
+      <c r="P48" s="113"/>
+      <c r="Q48" s="113"/>
+      <c r="R48" s="113"/>
+      <c r="S48" s="113"/>
+      <c r="T48" s="113"/>
+      <c r="U48" s="113"/>
+      <c r="V48" s="113"/>
+      <c r="W48" s="113"/>
+      <c r="X48" s="113"/>
+      <c r="Y48" s="113"/>
+      <c r="Z48" s="113"/>
+      <c r="AA48" s="113"/>
+      <c r="AB48" s="113"/>
+      <c r="AC48" s="113"/>
+      <c r="AD48" s="113"/>
+      <c r="AE48" s="113"/>
+      <c r="AF48" s="113"/>
+      <c r="AG48" s="113"/>
+      <c r="AH48" s="113"/>
+      <c r="AI48" s="113"/>
+      <c r="AJ48" s="114"/>
       <c r="AK48" s="39"/>
     </row>
     <row r="49" spans="1:37" ht="12.75" customHeight="1">
       <c r="A49" s="37"/>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="109"/>
-      <c r="K49" s="109"/>
-      <c r="L49" s="109"/>
-      <c r="M49" s="109"/>
-      <c r="N49" s="109"/>
-      <c r="O49" s="109"/>
-      <c r="P49" s="109"/>
-      <c r="Q49" s="109"/>
-      <c r="R49" s="109"/>
-      <c r="S49" s="109"/>
-      <c r="T49" s="109"/>
-      <c r="U49" s="109"/>
-      <c r="V49" s="109"/>
-      <c r="W49" s="109"/>
-      <c r="X49" s="109"/>
-      <c r="Y49" s="109"/>
-      <c r="Z49" s="109"/>
-      <c r="AA49" s="109"/>
-      <c r="AB49" s="109"/>
-      <c r="AC49" s="109"/>
-      <c r="AD49" s="109"/>
-      <c r="AE49" s="109"/>
-      <c r="AF49" s="109"/>
-      <c r="AG49" s="109"/>
-      <c r="AH49" s="109"/>
-      <c r="AI49" s="109"/>
-      <c r="AJ49" s="110"/>
+      <c r="B49" s="112"/>
+      <c r="C49" s="113"/>
+      <c r="D49" s="113"/>
+      <c r="E49" s="113"/>
+      <c r="F49" s="113"/>
+      <c r="G49" s="113"/>
+      <c r="H49" s="113"/>
+      <c r="I49" s="113"/>
+      <c r="J49" s="113"/>
+      <c r="K49" s="113"/>
+      <c r="L49" s="113"/>
+      <c r="M49" s="113"/>
+      <c r="N49" s="113"/>
+      <c r="O49" s="113"/>
+      <c r="P49" s="113"/>
+      <c r="Q49" s="113"/>
+      <c r="R49" s="113"/>
+      <c r="S49" s="113"/>
+      <c r="T49" s="113"/>
+      <c r="U49" s="113"/>
+      <c r="V49" s="113"/>
+      <c r="W49" s="113"/>
+      <c r="X49" s="113"/>
+      <c r="Y49" s="113"/>
+      <c r="Z49" s="113"/>
+      <c r="AA49" s="113"/>
+      <c r="AB49" s="113"/>
+      <c r="AC49" s="113"/>
+      <c r="AD49" s="113"/>
+      <c r="AE49" s="113"/>
+      <c r="AF49" s="113"/>
+      <c r="AG49" s="113"/>
+      <c r="AH49" s="113"/>
+      <c r="AI49" s="113"/>
+      <c r="AJ49" s="114"/>
       <c r="AK49" s="39"/>
     </row>
     <row r="50" spans="1:37" ht="12.75" customHeight="1">
       <c r="A50" s="37"/>
-      <c r="B50" s="111"/>
-      <c r="C50" s="112"/>
-      <c r="D50" s="112"/>
-      <c r="E50" s="112"/>
-      <c r="F50" s="112"/>
-      <c r="G50" s="112"/>
-      <c r="H50" s="112"/>
-      <c r="I50" s="112"/>
-      <c r="J50" s="112"/>
-      <c r="K50" s="112"/>
-      <c r="L50" s="112"/>
-      <c r="M50" s="112"/>
-      <c r="N50" s="112"/>
-      <c r="O50" s="112"/>
-      <c r="P50" s="112"/>
-      <c r="Q50" s="112"/>
-      <c r="R50" s="112"/>
-      <c r="S50" s="112"/>
-      <c r="T50" s="112"/>
-      <c r="U50" s="112"/>
-      <c r="V50" s="112"/>
-      <c r="W50" s="112"/>
-      <c r="X50" s="112"/>
-      <c r="Y50" s="112"/>
-      <c r="Z50" s="112"/>
-      <c r="AA50" s="112"/>
-      <c r="AB50" s="112"/>
-      <c r="AC50" s="112"/>
-      <c r="AD50" s="112"/>
-      <c r="AE50" s="112"/>
-      <c r="AF50" s="112"/>
-      <c r="AG50" s="112"/>
-      <c r="AH50" s="112"/>
-      <c r="AI50" s="112"/>
-      <c r="AJ50" s="113"/>
+      <c r="B50" s="115"/>
+      <c r="C50" s="116"/>
+      <c r="D50" s="116"/>
+      <c r="E50" s="116"/>
+      <c r="F50" s="116"/>
+      <c r="G50" s="116"/>
+      <c r="H50" s="116"/>
+      <c r="I50" s="116"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="116"/>
+      <c r="M50" s="116"/>
+      <c r="N50" s="116"/>
+      <c r="O50" s="116"/>
+      <c r="P50" s="116"/>
+      <c r="Q50" s="116"/>
+      <c r="R50" s="116"/>
+      <c r="S50" s="116"/>
+      <c r="T50" s="116"/>
+      <c r="U50" s="116"/>
+      <c r="V50" s="116"/>
+      <c r="W50" s="116"/>
+      <c r="X50" s="116"/>
+      <c r="Y50" s="116"/>
+      <c r="Z50" s="116"/>
+      <c r="AA50" s="116"/>
+      <c r="AB50" s="116"/>
+      <c r="AC50" s="116"/>
+      <c r="AD50" s="116"/>
+      <c r="AE50" s="116"/>
+      <c r="AF50" s="116"/>
+      <c r="AG50" s="116"/>
+      <c r="AH50" s="116"/>
+      <c r="AI50" s="116"/>
+      <c r="AJ50" s="117"/>
       <c r="AK50" s="39"/>
     </row>
     <row r="51" spans="1:37" ht="12.75" customHeight="1">
@@ -8840,87 +8840,36 @@
     </row>
   </sheetData>
   <mergeCells count="135">
-    <mergeCell ref="AC25:AE25"/>
-    <mergeCell ref="AC26:AE26"/>
-    <mergeCell ref="AC27:AE27"/>
-    <mergeCell ref="AC28:AE28"/>
-    <mergeCell ref="AC29:AE29"/>
-    <mergeCell ref="AF40:AG40"/>
-    <mergeCell ref="AI40:AJ40"/>
-    <mergeCell ref="AF41:AG41"/>
-    <mergeCell ref="AI41:AJ41"/>
-    <mergeCell ref="AF42:AG42"/>
-    <mergeCell ref="AI42:AJ42"/>
-    <mergeCell ref="AF37:AG37"/>
-    <mergeCell ref="AI37:AJ37"/>
-    <mergeCell ref="AF38:AG38"/>
-    <mergeCell ref="AI38:AJ38"/>
-    <mergeCell ref="AF39:AG39"/>
-    <mergeCell ref="AI39:AJ39"/>
-    <mergeCell ref="AF34:AG34"/>
-    <mergeCell ref="AI34:AJ34"/>
-    <mergeCell ref="AF35:AG35"/>
-    <mergeCell ref="AI35:AJ35"/>
-    <mergeCell ref="AF36:AG36"/>
-    <mergeCell ref="AI36:AJ36"/>
-    <mergeCell ref="AF31:AG31"/>
-    <mergeCell ref="AI31:AJ31"/>
-    <mergeCell ref="AF32:AG32"/>
-    <mergeCell ref="AI32:AJ32"/>
-    <mergeCell ref="AF33:AG33"/>
-    <mergeCell ref="AI33:AJ33"/>
-    <mergeCell ref="AF28:AG28"/>
-    <mergeCell ref="AI28:AJ28"/>
-    <mergeCell ref="AF29:AG29"/>
-    <mergeCell ref="AI29:AJ29"/>
-    <mergeCell ref="AF30:AG30"/>
-    <mergeCell ref="AI30:AJ30"/>
-    <mergeCell ref="AF25:AG25"/>
-    <mergeCell ref="AI25:AJ25"/>
-    <mergeCell ref="AF26:AG26"/>
-    <mergeCell ref="AI26:AJ26"/>
-    <mergeCell ref="AF27:AG27"/>
-    <mergeCell ref="AI27:AJ27"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="L23:O23"/>
-    <mergeCell ref="L24:O24"/>
-    <mergeCell ref="L25:O25"/>
-    <mergeCell ref="L26:O26"/>
-    <mergeCell ref="L27:O27"/>
-    <mergeCell ref="R24:U24"/>
-    <mergeCell ref="R23:U23"/>
-    <mergeCell ref="AF23:AG23"/>
-    <mergeCell ref="AI23:AJ23"/>
-    <mergeCell ref="AF24:AG24"/>
-    <mergeCell ref="AI24:AJ24"/>
-    <mergeCell ref="Z23:AB23"/>
-    <mergeCell ref="AC23:AE23"/>
-    <mergeCell ref="Z24:AB24"/>
-    <mergeCell ref="AC24:AE24"/>
-    <mergeCell ref="V38:Y38"/>
-    <mergeCell ref="V39:Y39"/>
-    <mergeCell ref="V40:Y40"/>
-    <mergeCell ref="V41:Y41"/>
-    <mergeCell ref="V42:Y42"/>
-    <mergeCell ref="V33:Y33"/>
-    <mergeCell ref="V34:Y34"/>
-    <mergeCell ref="V35:Y35"/>
-    <mergeCell ref="V36:Y36"/>
-    <mergeCell ref="V37:Y37"/>
-    <mergeCell ref="V28:Y28"/>
-    <mergeCell ref="V29:Y29"/>
-    <mergeCell ref="V30:Y30"/>
-    <mergeCell ref="V31:Y31"/>
-    <mergeCell ref="V32:Y32"/>
-    <mergeCell ref="V23:Y23"/>
-    <mergeCell ref="V24:Y24"/>
-    <mergeCell ref="V25:Y25"/>
-    <mergeCell ref="V26:Y26"/>
-    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="B5:AJ8"/>
+    <mergeCell ref="AD15:AJ15"/>
+    <mergeCell ref="B17:AJ17"/>
+    <mergeCell ref="Z22:AB22"/>
+    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="A1:AK1"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:AG2"/>
+    <mergeCell ref="AH2:AI2"/>
+    <mergeCell ref="AJ2:AK2"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="R22:U22"/>
+    <mergeCell ref="AC22:AE22"/>
+    <mergeCell ref="AF22:AJ22"/>
+    <mergeCell ref="P22:Q22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B22:C22"/>
     <mergeCell ref="B47:AJ50"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B14:I14"/>
@@ -8945,36 +8894,87 @@
     <mergeCell ref="B38:C38"/>
     <mergeCell ref="B39:C39"/>
     <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="R22:U22"/>
-    <mergeCell ref="AC22:AE22"/>
-    <mergeCell ref="AF22:AJ22"/>
-    <mergeCell ref="P22:Q22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A1:AK1"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:AG2"/>
-    <mergeCell ref="AH2:AI2"/>
-    <mergeCell ref="AJ2:AK2"/>
-    <mergeCell ref="B5:AJ8"/>
-    <mergeCell ref="AD15:AJ15"/>
-    <mergeCell ref="B17:AJ17"/>
-    <mergeCell ref="Z22:AB22"/>
-    <mergeCell ref="L22:O22"/>
+    <mergeCell ref="V29:Y29"/>
+    <mergeCell ref="V30:Y30"/>
+    <mergeCell ref="V31:Y31"/>
+    <mergeCell ref="V32:Y32"/>
+    <mergeCell ref="V23:Y23"/>
+    <mergeCell ref="V24:Y24"/>
+    <mergeCell ref="V25:Y25"/>
+    <mergeCell ref="V26:Y26"/>
+    <mergeCell ref="V27:Y27"/>
+    <mergeCell ref="V38:Y38"/>
+    <mergeCell ref="V39:Y39"/>
+    <mergeCell ref="V40:Y40"/>
+    <mergeCell ref="V41:Y41"/>
+    <mergeCell ref="V42:Y42"/>
+    <mergeCell ref="V33:Y33"/>
+    <mergeCell ref="V34:Y34"/>
+    <mergeCell ref="V35:Y35"/>
+    <mergeCell ref="V36:Y36"/>
+    <mergeCell ref="V37:Y37"/>
+    <mergeCell ref="AI26:AJ26"/>
+    <mergeCell ref="AF27:AG27"/>
+    <mergeCell ref="AI27:AJ27"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="L23:O23"/>
+    <mergeCell ref="L24:O24"/>
+    <mergeCell ref="L25:O25"/>
+    <mergeCell ref="L26:O26"/>
+    <mergeCell ref="L27:O27"/>
+    <mergeCell ref="R24:U24"/>
+    <mergeCell ref="R23:U23"/>
+    <mergeCell ref="AF23:AG23"/>
+    <mergeCell ref="AI23:AJ23"/>
+    <mergeCell ref="AF24:AG24"/>
+    <mergeCell ref="AI24:AJ24"/>
+    <mergeCell ref="Z23:AB23"/>
+    <mergeCell ref="AC23:AE23"/>
+    <mergeCell ref="Z24:AB24"/>
+    <mergeCell ref="AC24:AE24"/>
+    <mergeCell ref="V28:Y28"/>
+    <mergeCell ref="AF42:AG42"/>
+    <mergeCell ref="AI42:AJ42"/>
+    <mergeCell ref="AF37:AG37"/>
+    <mergeCell ref="AI37:AJ37"/>
+    <mergeCell ref="AF38:AG38"/>
+    <mergeCell ref="AI38:AJ38"/>
+    <mergeCell ref="AF39:AG39"/>
+    <mergeCell ref="AI39:AJ39"/>
+    <mergeCell ref="AF34:AG34"/>
+    <mergeCell ref="AI34:AJ34"/>
+    <mergeCell ref="AF35:AG35"/>
+    <mergeCell ref="AI35:AJ35"/>
+    <mergeCell ref="AF36:AG36"/>
+    <mergeCell ref="AI36:AJ36"/>
+    <mergeCell ref="AC25:AE25"/>
+    <mergeCell ref="AC26:AE26"/>
+    <mergeCell ref="AC27:AE27"/>
+    <mergeCell ref="AC28:AE28"/>
+    <mergeCell ref="AC29:AE29"/>
+    <mergeCell ref="AF40:AG40"/>
+    <mergeCell ref="AI40:AJ40"/>
+    <mergeCell ref="AF41:AG41"/>
+    <mergeCell ref="AI41:AJ41"/>
+    <mergeCell ref="AF31:AG31"/>
+    <mergeCell ref="AI31:AJ31"/>
+    <mergeCell ref="AF32:AG32"/>
+    <mergeCell ref="AI32:AJ32"/>
+    <mergeCell ref="AF33:AG33"/>
+    <mergeCell ref="AI33:AJ33"/>
+    <mergeCell ref="AF28:AG28"/>
+    <mergeCell ref="AI28:AJ28"/>
+    <mergeCell ref="AF29:AG29"/>
+    <mergeCell ref="AI29:AJ29"/>
+    <mergeCell ref="AF30:AG30"/>
+    <mergeCell ref="AI30:AJ30"/>
+    <mergeCell ref="AF25:AG25"/>
+    <mergeCell ref="AI25:AJ25"/>
+    <mergeCell ref="AF26:AG26"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <printOptions horizontalCentered="1"/>
